--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Single Model</t>
   </si>
@@ -82,13 +82,103 @@
   </si>
   <si>
     <t>LR | LR cubic</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Not yet</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>I-Mac</t>
+  </si>
+  <si>
+    <t>I-Mac | C-Mac</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Neural Networks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xgboost </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>900</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FM - MCMC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>900</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FM - ALS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 900</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,8 +209,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +254,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -256,15 +359,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -281,12 +449,56 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -628,9 +840,12 @@
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -643,8 +858,17 @@
       <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -657,8 +881,17 @@
       <c r="E2" s="9">
         <v>0.4028487</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -671,8 +904,17 @@
       <c r="E3" s="8">
         <v>0.39385690000000001</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -683,8 +925,17 @@
       <c r="E4" s="10">
         <v>0.3987851</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -694,9 +945,20 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="8">
+        <v>0.39281050000000001</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -706,9 +968,20 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="9">
+        <v>0.4046033</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -721,8 +994,17 @@
       <c r="E7" s="8">
         <v>0.39367839999999998</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,8 +1020,17 @@
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="16" thickBot="1">
+    <row r="9" spans="1:9" ht="16" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -752,8 +1043,17 @@
       <c r="E9" s="8">
         <v>0.39302140000000002</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="16" thickBot="1">
+    <row r="10" spans="1:9" ht="16" thickBot="1">
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -405,8 +405,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -474,7 +476,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -487,6 +489,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -499,6 +502,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -831,7 +835,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -951,11 +955,11 @@
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>25</v>
+      <c r="H5" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -115,21 +115,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Neural Networks </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">xgboost </t>
     </r>
     <r>
@@ -171,6 +156,21 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 900</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Neural Networks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(160/130)</t>
     </r>
   </si>
 </sst>
@@ -835,7 +835,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -844,7 +844,7 @@
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -953,7 +953,7 @@
         <v>0.39281050000000001</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>24</v>
@@ -976,7 +976,7 @@
         <v>0.4046033</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>25</v>
@@ -999,7 +999,7 @@
         <v>0.39367839999999998</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>24</v>
@@ -1025,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>24</v>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\VAZU-CTR-Prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="18384" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Single Model</t>
   </si>
@@ -70,9 +75,6 @@
   </si>
   <si>
     <t>xgboost | MCMC</t>
-  </si>
-  <si>
-    <t>LR | LR poly</t>
   </si>
   <si>
     <t>xgboost | LR</t>
@@ -172,6 +174,12 @@
       </rPr>
       <t>(160/130)</t>
     </r>
+  </si>
+  <si>
+    <t>LR | LR poly | LR cubic</t>
+  </si>
+  <si>
+    <t>LR | LR poly (0.3926943)</t>
   </si>
 </sst>
 </file>
@@ -217,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,12 +258,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,7 +436,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -450,14 +452,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,6 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -507,6 +506,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -832,24 +839,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" customWidth="1"/>
     <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -863,16 +870,16 @@
         <v>8</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="H1" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -888,20 +895,23 @@
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>27</v>
+      <c r="H2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>0.39790550000000002</v>
       </c>
+      <c r="C3">
+        <v>0.39793899999999999</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
@@ -911,18 +921,20 @@
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>28</v>
+      <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>0.39408169999999998</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
@@ -932,14 +944,14 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>27</v>
+      <c r="H4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -953,16 +965,16 @@
         <v>0.39281050000000001</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -976,16 +988,16 @@
         <v>0.4046033</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -999,16 +1011,16 @@
         <v>0.39367839999999998</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,25 +1028,25 @@
         <v>0.44173899999999999</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E8" s="8">
         <v>0.39186949999999998</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1">
+    <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1042,26 +1054,36 @@
         <v>0.4269348</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8">
         <v>0.39302140000000002</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1">
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="11"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.39246259999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.39207769999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Single Model</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>LR | LR poly (0.3926943)</t>
+  </si>
+  <si>
+    <t>Logistic Regression - Interact</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -474,6 +477,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -842,7 +846,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -981,6 +985,9 @@
       <c r="B6" s="2">
         <v>0.3941421</v>
       </c>
+      <c r="C6">
+        <v>0.39319700000000002</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
@@ -990,8 +997,8 @@
       <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>23</v>
+      <c r="H6" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>26</v>
@@ -1047,10 +1054,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>0.4269348</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1069,12 +1076,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.39770149999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.39571899999999999</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="8">
         <v>0.39246259999999999</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.39172950000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Single Model</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Logistic Regression - Interact</t>
+  </si>
+  <si>
+    <t>2grams</t>
+  </si>
+  <si>
+    <t>3grams</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -409,6 +415,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -439,7 +456,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -478,6 +495,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -843,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1076,11 +1094,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>0.39770149999999999</v>
       </c>
       <c r="C10">
@@ -1097,11 +1115,30 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.40264919999999998</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="18">
         <v>0.39207769999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.40968549999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
+        <v>0.4055453</v>
       </c>
     </row>
   </sheetData>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -456,7 +456,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -496,6 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -864,7 +865,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -905,7 +906,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="21">
         <v>0.3931037</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -954,7 +955,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="21">
         <v>0.39408169999999998</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -977,7 +978,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="21">
         <v>0.39972479999999999</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1000,7 +1001,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="21">
         <v>0.3941421</v>
       </c>
       <c r="C6">
@@ -1026,7 +1027,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="21">
         <v>0.40276430000000002</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1118,7 +1119,7 @@
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="21">
         <v>0.40264919999999998</v>
       </c>
       <c r="D11" s="3" t="s">

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Single Model</t>
   </si>
@@ -190,12 +190,24 @@
   <si>
     <t>3grams</t>
   </si>
+  <si>
+    <t>Histogram - logistic</t>
+  </si>
+  <si>
+    <t>Histogram - xgboost</t>
+  </si>
+  <si>
+    <t>Sofia-ML</t>
+  </si>
+  <si>
+    <t>0.4150554(regulated)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +241,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -413,17 +431,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -495,8 +502,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -862,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -906,7 +913,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>0.3931037</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -955,7 +962,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0.39408169999999998</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -978,7 +985,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>0.39972479999999999</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1001,7 +1008,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>0.3941421</v>
       </c>
       <c r="C6">
@@ -1027,7 +1034,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>0.40276430000000002</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1119,7 +1126,7 @@
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>0.40264919999999998</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1129,18 +1136,36 @@
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="21">
         <v>0.40968549999999998</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="20">
-        <v>0.4055453</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.41750569999999998</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\VAZU-CTR-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\AVAZU-CTR-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Single Model</t>
   </si>
@@ -114,6 +114,54 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>LR | LR poly | LR cubic</t>
+  </si>
+  <si>
+    <t>LR | LR poly (0.3926943)</t>
+  </si>
+  <si>
+    <t>Logistic Regression - Interact</t>
+  </si>
+  <si>
+    <t>2grams</t>
+  </si>
+  <si>
+    <t>3grams</t>
+  </si>
+  <si>
+    <t>Histogram - logistic</t>
+  </si>
+  <si>
+    <t>Histogram - xgboost</t>
+  </si>
+  <si>
+    <t>Sofia-ML</t>
+  </si>
+  <si>
+    <t>0.4150554(regulated)</t>
+  </si>
+  <si>
+    <t>Blending</t>
+  </si>
+  <si>
+    <t>0.4*(0.7*py + 0.3 * cubic) + 0.4 * xgboost + 0.2 * FM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Neural Networks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(160/130)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -121,11 +169,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
       </rPr>
       <t>900</t>
     </r>
@@ -136,11 +184,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
       </rPr>
       <t>900</t>
     </r>
@@ -151,73 +199,54 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve"> 900</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Neural Networks </t>
+      <t xml:space="preserve">0.4 * py + 0.4 * xgboost + 0.2 * FM </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
       </rPr>
-      <t>(160/130)</t>
+      <t>(1/2 calibrate)</t>
     </r>
   </si>
   <si>
-    <t>LR | LR poly | LR cubic</t>
-  </si>
-  <si>
-    <t>LR | LR poly (0.3926943)</t>
-  </si>
-  <si>
-    <t>Logistic Regression - Interact</t>
-  </si>
-  <si>
-    <t>2grams</t>
-  </si>
-  <si>
-    <t>3grams</t>
-  </si>
-  <si>
-    <t>Histogram - logistic</t>
-  </si>
-  <si>
-    <t>Histogram - xgboost</t>
-  </si>
-  <si>
-    <t>Sofia-ML</t>
-  </si>
-  <si>
-    <t>0.4150554(regulated)</t>
+    <r>
+      <t xml:space="preserve">0.4 * py + 0.4 * xgboost + 0.2 * FM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(full calibrate)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,17 +268,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -436,74 +479,85 @@
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -869,305 +923,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="1"/>
+    <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="1"/>
+    <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="6">
         <v>0.3931037</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>0.4028487</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>0.39790550000000002</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.39793899999999999</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="11">
         <v>0.39385690000000001</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="6">
         <v>0.39408169999999998</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="12">
         <v>0.3987851</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="6">
         <v>0.39972479999999999</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="11">
         <v>0.39281050000000001</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="6">
         <v>0.3941421</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.39319700000000002</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>0.4046033</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="6">
         <v>0.40276430000000002</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <v>0.39367839999999998</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.44173899999999999</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.44173899999999999</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>0.39186949999999998</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="10">
         <v>0.4269348</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11">
         <v>0.39302140000000002</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10">
         <v>0.39770149999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.39571899999999999</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>0.39246259999999999</v>
       </c>
       <c r="F10" s="19">
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="20">
+    <row r="11" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="6">
         <v>0.40264919999999998</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.39207769999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.39207769999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B12" s="21">
         <v>0.40968549999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B13" s="21">
         <v>0.41750569999999998</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26">
+        <v>0.39057740000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26">
+        <v>0.39014720000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26">
+        <v>0.39023099999999999</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Single Model</t>
   </si>
@@ -237,6 +237,30 @@
       </rPr>
       <t>(full calibrate)</t>
     </r>
+  </si>
+  <si>
+    <t>0.4 * py + 0.4 * xgboost + 0.2 * FM</t>
+  </si>
+  <si>
+    <t>3/(1/py + 1/xgboost + 1/FM)</t>
+  </si>
+  <si>
+    <r>
+      <t>3/(1/py + 1/xgboost + 1/FM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (full calibrate)</t>
+    </r>
+  </si>
+  <si>
+    <t>3/(1/(0.7*py + 0.3 * cubic) + 1/xgboost + 1/FM)</t>
   </si>
 </sst>
 </file>
@@ -551,13 +575,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -923,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1225,13 +1249,13 @@
       <c r="B15" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1242,7 +1266,7 @@
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <v>0.39057740000000002</v>
       </c>
     </row>
@@ -1253,7 +1277,7 @@
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>0.39014720000000003</v>
       </c>
     </row>
@@ -1264,16 +1288,64 @@
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="26">
+      <c r="E20" s="24">
         <v>0.39023099999999999</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24">
+        <v>0.3907175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24">
+        <v>0.39060810000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24">
+        <v>0.39055060000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24">
+        <v>0.39064090000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\AVAZU-CTR-Prediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="18384" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Single Model</t>
   </si>
@@ -135,9 +130,6 @@
   </si>
   <si>
     <t>Histogram - xgboost</t>
-  </si>
-  <si>
-    <t>Sofia-ML</t>
   </si>
   <si>
     <t>0.4150554(regulated)</t>
@@ -261,6 +253,18 @@
   </si>
   <si>
     <t>3/(1/(0.7*py + 0.3 * cubic) + 1/xgboost + 1/FM)</t>
+  </si>
+  <si>
+    <t>Sofia-ML (0.01/0.1/0.2)</t>
+  </si>
+  <si>
+    <t>Hist | LR</t>
+  </si>
+  <si>
+    <t>Sofia | LR</t>
+  </si>
+  <si>
+    <t>0.4137420/0.4327143/0.4465562</t>
   </si>
 </sst>
 </file>
@@ -501,7 +505,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -529,8 +533,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +565,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,8 +575,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,8 +587,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -597,6 +612,8 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -610,6 +627,8 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -950,24 +969,24 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="24"/>
     <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.19921875" style="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1013,14 +1032,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10">
         <v>0.39790550000000002</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="24">
         <v>0.39793899999999999</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1039,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1095,7 @@
         <v>0.39281050000000001</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>23</v>
@@ -1085,14 +1104,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>0.3941421</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="24">
         <v>0.39319700000000002</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1102,7 +1121,7 @@
         <v>0.4046033</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>22</v>
@@ -1111,7 +1130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1144,7 @@
         <v>0.39367839999999998</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>23</v>
@@ -1134,7 +1153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1147,20 +1166,20 @@
       <c r="E8" s="11">
         <v>0.39186949999999998</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1173,24 +1192,24 @@
       <c r="E9" s="11">
         <v>0.39302140000000002</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="10">
         <v>0.39770149999999999</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="24">
         <v>0.39571899999999999</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1199,140 +1218,156 @@
       <c r="E10" s="11">
         <v>0.39246259999999999</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="26">
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="6">
         <v>0.40264919999999998</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="11">
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>0.40968549999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.39759860000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>0.41750569999999998</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.39835199999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="22"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="B14" s="18">
+        <v>0.42362290000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14" thickBot="1">
+      <c r="A15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21">
         <v>0.39057740000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21">
+        <v>0.39014720000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24">
-        <v>0.39014720000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21">
+        <v>0.39023099999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24">
-        <v>0.39023099999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21">
+        <v>0.3907175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24">
-        <v>0.3907175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21">
+        <v>0.39060810000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24">
-        <v>0.39060810000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>0.39055060000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24">
-        <v>0.39055060000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="24">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="21">
         <v>0.39064090000000001</v>
       </c>
     </row>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Single Model</t>
   </si>
@@ -265,6 +265,21 @@
   </si>
   <si>
     <t>0.4137420/0.4327143/0.4465562</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.4*(0.7*py + 0.3 * cubic) + 0.4 * xgboost + 0.2 * FM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(1/2 calibrate)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -505,8 +520,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -581,12 +598,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -597,8 +608,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -614,6 +631,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -629,6 +647,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -966,20 +985,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="24"/>
+    <col min="6" max="6" width="11.1640625" style="22"/>
     <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1039,7 +1058,7 @@
       <c r="B3" s="10">
         <v>0.39790550000000002</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>0.39793899999999999</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1111,7 +1130,7 @@
       <c r="B6" s="6">
         <v>0.3941421</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>0.39319700000000002</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1166,7 +1185,7 @@
       <c r="E8" s="11">
         <v>0.39186949999999998</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1209,7 +1228,7 @@
       <c r="B10" s="10">
         <v>0.39770149999999999</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>0.39571899999999999</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1218,7 +1237,7 @@
       <c r="E10" s="11">
         <v>0.39246259999999999</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <v>0.39172950000000001</v>
       </c>
     </row>
@@ -1257,13 +1276,13 @@
       <c r="B13" s="18">
         <v>0.41750569999999998</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>0.39835199999999998</v>
       </c>
     </row>
@@ -1284,95 +1303,107 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="21">
         <v>0.39057740000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="21">
         <v>0.39014720000000003</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="21">
         <v>0.39023099999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="21">
         <v>0.3907175</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="21">
         <v>0.39060810000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="21">
         <v>0.39055060000000003</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="21">
         <v>0.39064090000000001</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="21">
+        <v>0.39112740000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="10080" yWindow="1060" windowWidth="25600" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Single Model</t>
   </si>
@@ -280,6 +280,30 @@
       </rPr>
       <t>(1/2 calibrate)</t>
     </r>
+  </si>
+  <si>
+    <t>5/(1/py + 1/cubic + 1/xgboost + 1/fm + 1/nn)</t>
+  </si>
+  <si>
+    <t>0.3*(0.7*py+0.3*cubic) + 0.3*xgboost + 0.2*fm + 0.2*nn</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5/(1/py + 1/cubic + 1/xgboost + 1/fm + 1/nn) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(1/2 calibrate)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4/(1/(0.7py + 0.3cubi)c + 1/xgboost + 1/fm + 1/nn) </t>
   </si>
 </sst>
 </file>
@@ -520,8 +544,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -615,7 +647,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -632,6 +664,10 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -648,6 +684,10 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -985,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1401,17 +1441,65 @@
         <v>0.39112740000000001</v>
       </c>
     </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="21">
+        <v>0.39023000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="21">
+        <v>0.3925264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="21">
+        <v>0.39039259999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="21">
+        <v>0.3903354</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\AVAZU-CTR-Prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1060" windowWidth="25600" windowHeight="13200" tabRatio="500"/>
+    <workbookView xWindow="10080" yWindow="1056" windowWidth="25596" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Single Model</t>
   </si>
@@ -304,6 +309,9 @@
   </si>
   <si>
     <t xml:space="preserve">4/(1/(0.7py + 0.3cubi)c + 1/xgboost + 1/fm + 1/nn) </t>
+  </si>
+  <si>
+    <t>LR | LR dual</t>
   </si>
 </sst>
 </file>
@@ -1028,24 +1036,24 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="22"/>
+    <col min="5" max="5" width="18.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="22"/>
     <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.1640625" style="1"/>
+    <col min="8" max="8" width="14.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1163,7 +1171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1189,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14" thickBot="1">
+    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1281,7 +1289,7 @@
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1295,7 +1303,7 @@
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>0.39759860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14" thickBot="1">
+    <row r="13" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1326,15 +1334,21 @@
         <v>0.39835199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="18">
         <v>0.42362290000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="14" thickBot="1">
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.3927775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -1342,7 +1356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>38</v>
       </c>
@@ -1353,7 +1367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>39</v>
       </c>
@@ -1364,7 +1378,7 @@
         <v>0.39057740000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>44</v>
       </c>
@@ -1375,7 +1389,7 @@
         <v>0.39014720000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>45</v>
       </c>
@@ -1386,7 +1400,7 @@
         <v>0.39023099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>46</v>
       </c>
@@ -1397,7 +1411,7 @@
         <v>0.3907175</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>47</v>
       </c>
@@ -1408,7 +1422,7 @@
         <v>0.39060810000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>48</v>
       </c>
@@ -1419,7 +1433,7 @@
         <v>0.39055060000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>49</v>
       </c>
@@ -1430,7 +1444,7 @@
         <v>0.39064090000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>54</v>
       </c>
@@ -1441,7 +1455,7 @@
         <v>0.39112740000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>55</v>
       </c>
@@ -1452,7 +1466,7 @@
         <v>0.39023000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>56</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>0.3925264</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>57</v>
       </c>
@@ -1474,7 +1488,7 @@
         <v>0.39039259999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>58</v>
       </c>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Single Model</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>LR | LR dual</t>
+  </si>
+  <si>
+    <t>6/(1/py + 1/cubic + 1/xgboost + 1/fm + 1/nn + 1/dual)</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1499,8 +1502,20 @@
         <v>0.3903354</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="21">
+        <v>0.39053900000000003</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\AVAZU-CTR-Prediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1056" windowWidth="25596" windowHeight="13200" tabRatio="500"/>
+    <workbookView xWindow="10080" yWindow="1060" windowWidth="25600" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Single Model</t>
   </si>
@@ -315,6 +310,9 @@
   </si>
   <si>
     <t>6/(1/py + 1/cubic + 1/xgboost + 1/fm + 1/nn + 1/dual)</t>
+  </si>
+  <si>
+    <t>LR | LR pric</t>
   </si>
 </sst>
 </file>
@@ -555,7 +553,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -597,8 +595,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,8 +659,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -679,6 +687,8 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -699,6 +709,8 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1039,24 +1051,24 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="22"/>
+    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="22"/>
     <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.19921875" style="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1079,13 +1091,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>0.3931037</v>
       </c>
+      <c r="C2" s="22">
+        <v>0.39140000000000003</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1102,7 +1117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1151,7 +1166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1174,7 +1189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1223,7 +1238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="13.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1272,7 +1287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1292,7 +1307,7 @@
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1306,7 +1321,7 @@
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1320,7 +1335,7 @@
         <v>0.39759860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="13.75" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>0.39835199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1351,15 +1366,21 @@
         <v>0.3927775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.39249859999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="27" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="26" t="s">
         <v>39</v>
       </c>
@@ -1381,7 +1402,7 @@
         <v>0.39057740000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="26" t="s">
         <v>44</v>
       </c>
@@ -1392,7 +1413,7 @@
         <v>0.39014720000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="26" t="s">
         <v>45</v>
       </c>
@@ -1403,7 +1424,7 @@
         <v>0.39023099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="26" t="s">
         <v>46</v>
       </c>
@@ -1414,7 +1435,7 @@
         <v>0.3907175</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="26" t="s">
         <v>47</v>
       </c>
@@ -1425,7 +1446,7 @@
         <v>0.39060810000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="26" t="s">
         <v>48</v>
       </c>
@@ -1436,7 +1457,7 @@
         <v>0.39055060000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="26" t="s">
         <v>49</v>
       </c>
@@ -1447,7 +1468,7 @@
         <v>0.39064090000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="26" t="s">
         <v>54</v>
       </c>
@@ -1458,7 +1479,7 @@
         <v>0.39112740000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="26" t="s">
         <v>55</v>
       </c>
@@ -1469,7 +1490,7 @@
         <v>0.39023000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="26" t="s">
         <v>56</v>
       </c>
@@ -1480,7 +1501,7 @@
         <v>0.3925264</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="26" t="s">
         <v>57</v>
       </c>
@@ -1491,7 +1512,7 @@
         <v>0.39039259999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="26" t="s">
         <v>58</v>
       </c>
@@ -1502,7 +1523,7 @@
         <v>0.3903354</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="26" t="s">
         <v>60</v>
       </c>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\AVAZU-CTR-Prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1060" windowWidth="25600" windowHeight="13200" tabRatio="500"/>
+    <workbookView xWindow="10080" yWindow="1056" windowWidth="25596" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Single Model</t>
   </si>
@@ -313,6 +318,9 @@
   </si>
   <si>
     <t>LR | LR pric</t>
+  </si>
+  <si>
+    <t>0.3966866 （80）</t>
   </si>
 </sst>
 </file>
@@ -653,17 +661,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1051,24 +1059,24 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="22"/>
+    <col min="5" max="5" width="18.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" style="22"/>
     <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.1640625" style="1"/>
+    <col min="8" max="8" width="14.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1166,13 +1174,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>0.39972479999999999</v>
       </c>
+      <c r="C5" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1189,7 +1200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1215,7 +1226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.75" thickBot="1">
+    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1307,7 +1318,7 @@
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1321,7 +1332,7 @@
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>0.39759860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.75" thickBot="1">
+    <row r="13" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1352,7 +1363,7 @@
         <v>0.39835199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1366,170 +1377,170 @@
         <v>0.3927775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14" thickBot="1">
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="27">
         <v>0.39249859999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="21">
         <v>0.39057740000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="21">
         <v>0.39014720000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="21">
         <v>0.39023099999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="21">
         <v>0.3907175</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="21">
         <v>0.39060810000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="21">
         <v>0.39055060000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="21">
         <v>0.39064090000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="21">
         <v>0.39112740000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="21">
         <v>0.39023000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="21">
         <v>0.3925264</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="21">
         <v>0.39039259999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="26" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="21">
         <v>0.3903354</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="21">
         <v>0.39053900000000003</v>
       </c>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Single Model</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>0.3966866 （80）</t>
+  </si>
+  <si>
+    <t>NN 60 | NN80</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1062,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1389,6 +1392,14 @@
       </c>
       <c r="E15" s="27">
         <v>0.39249859999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.39577820000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>Single Model</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>NN 60 | NN80</t>
+  </si>
+  <si>
+    <t>5/(1/py + 1/cubic + 1/xgboost + 1/fm + 1/nn6080)</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1556,8 +1559,20 @@
         <v>0.39053900000000003</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="21">
+        <v>0.39010529999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\AVAZU-CTR-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Machine_Learning\VAZU\AVAZU-CTR-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1056" windowWidth="25596" windowHeight="13200" tabRatio="500"/>
+    <workbookView xWindow="10080" yWindow="1050" windowWidth="25590" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>Single Model</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>5/(1/py + 1/cubic + 1/xgboost + 1/fm + 1/nn6080)</t>
+  </si>
+  <si>
+    <t>FTRL | DUAL | CUBIC</t>
+  </si>
+  <si>
+    <t>4/(1/FTRL comb + 1/xgboost + 1/fm + 1/nn6080)</t>
+  </si>
+  <si>
+    <t>0.3915902 (average)</t>
   </si>
 </sst>
 </file>
@@ -1062,27 +1071,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="22"/>
-    <col min="7" max="7" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="22"/>
+    <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1352,7 +1361,7 @@
         <v>0.39759860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>0.39835199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>0.3927775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>0.39249859999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D16" s="26" t="s">
         <v>63</v>
       </c>
@@ -1405,188 +1414,211 @@
         <v>0.39577820000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.39163439999999999</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="20" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="21">
-        <v>0.39057740000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="21">
-        <v>0.39014720000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39057740000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="E20" s="21">
-        <v>0.39023099999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39014720000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="21">
-        <v>0.3907175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39023099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="21">
-        <v>0.39060810000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.3907175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="21">
-        <v>0.39055060000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39060810000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="21">
-        <v>0.39064090000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39055060000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="21">
-        <v>0.39112740000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39064090000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="21">
-        <v>0.39023000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39112740000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="21">
-        <v>0.3925264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39023000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="21">
-        <v>0.39039259999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.3925264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="21">
-        <v>0.3903354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.39039259999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="21">
-        <v>0.39053900000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.3903354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="21">
+        <v>0.39053900000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="21">
         <v>0.39010529999999999</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="21">
+        <v>0.39025559999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1590,7 +1590,7 @@
         <v>0.39010529999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>66</v>
       </c>
@@ -1599,6 +1599,9 @@
       <c r="D33" s="28"/>
       <c r="E33" s="21">
         <v>0.39025559999999998</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0.39023740000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1050" windowWidth="25590" windowHeight="13200" tabRatio="500"/>
+    <workbookView xWindow="10080" yWindow="1050" windowWidth="25590" windowHeight="13200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Single Model</t>
   </si>
@@ -337,12 +338,42 @@
   <si>
     <t>0.3915902 (average)</t>
   </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>#Test</t>
+  </si>
+  <si>
+    <t>#Train</t>
+  </si>
+  <si>
+    <t>Key: name of the key</t>
+  </si>
+  <si>
+    <t>#Test: number of unique values in test</t>
+  </si>
+  <si>
+    <t>Unique Test: values present in test but not in train</t>
+  </si>
+  <si>
+    <t>#Train: number unique values in train</t>
+  </si>
+  <si>
+    <t>Unique Train: values present in train but not in test</t>
+  </si>
+  <si>
+    <t>Unique Test</t>
+  </si>
+  <si>
+    <t>Unique Train</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,6 +424,13 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -623,7 +661,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,6 +725,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1073,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1631,4 +1673,65 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="10.5" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -15,7 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
   <si>
     <t>Single Model</t>
   </si>
@@ -368,12 +369,315 @@
   <si>
     <t>Unique Train</t>
   </si>
+  <si>
+    <t>%NaN</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>app_train</t>
+  </si>
+  <si>
+    <t>app_test</t>
+  </si>
+  <si>
+    <t>site_train</t>
+  </si>
+  <si>
+    <t>site_test</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>banner_pos</t>
+  </si>
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>app_domain</t>
+  </si>
+  <si>
+    <t>app_category</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>device_ip</t>
+  </si>
+  <si>
+    <t>device_model</t>
+  </si>
+  <si>
+    <t>device_type</t>
+  </si>
+  <si>
+    <t>device_conn_type</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001    1002    1005    1007    1008    1010    1012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0        1        2        3        5        7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09481d60 0bfbc358 0d82db25 </t>
+  </si>
+  <si>
+    <t>f7f22564 f82a3e61 f84a2400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"b116a5b3" "1290a5dd" "67ec2de0" </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>01745</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">55f </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>01745</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a01 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>01745</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">c11 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0523d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">71e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0523</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>e34d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 0523</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ea61</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ff2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a3543 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>ff2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>fef35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ff3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>242b8</t>
+    </r>
+  </si>
+  <si>
+    <t>0        1        4        5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0        2        3        5 </t>
+  </si>
+  <si>
+    <t>23822  23823  23824  23825  23837</t>
+  </si>
+  <si>
+    <t>120      216      300      320      480      728      768     1024</t>
+  </si>
+  <si>
+    <t>C15 (solution)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20       36       50       90      250      320      480      768     1024 </t>
+  </si>
+  <si>
+    <t>C16 (solution)</t>
+  </si>
+  <si>
+    <t>2747    2748    2749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0       1       2       3 </t>
+  </si>
+  <si>
+    <t>33      34      35      38</t>
+  </si>
+  <si>
+    <t>-1  100001  100002</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -431,8 +735,34 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +796,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +997,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,16 +1056,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1468,177 +1815,177 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="21">
         <v>0.39057740000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="21">
         <v>0.39014720000000003</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="21">
         <v>0.39023099999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="21">
         <v>0.3907175</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="21">
         <v>0.39060810000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="21">
         <v>0.39055060000000003</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="21">
         <v>0.39064090000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="21">
         <v>0.39112740000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="21">
         <v>0.39023000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="21">
         <v>0.3925264</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="21">
         <v>0.39039259999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="21">
         <v>0.3903354</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="21">
         <v>0.39053900000000003</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="21">
         <v>0.39010529999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="21">
         <v>0.39025559999999998</v>
       </c>
@@ -1677,58 +2024,855 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.5" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="14.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G2" s="30" t="s">
+      <c r="G1" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="35">
+        <v>1719304</v>
+      </c>
+      <c r="C2" s="35">
+        <v>1719304</v>
+      </c>
+      <c r="D2" s="35">
+        <v>0</v>
+      </c>
+      <c r="E2" s="35">
+        <v>14596137</v>
+      </c>
+      <c r="F2" s="35">
+        <v>14596137</v>
+      </c>
+      <c r="G2" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35">
+        <v>2</v>
+      </c>
+      <c r="F3" s="35">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="35">
+        <v>24</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0</v>
+      </c>
+      <c r="E4" s="35">
+        <v>24</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="35">
+        <v>7</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0</v>
+      </c>
+      <c r="E5" s="35">
+        <v>7</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="35">
+        <v>5</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0</v>
+      </c>
+      <c r="E6" s="35">
+        <v>6</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="35">
+        <v>3951</v>
+      </c>
+      <c r="C7" s="35">
+        <v>584</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35">
+        <v>8551</v>
+      </c>
+      <c r="F7" s="35">
+        <v>5184</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="35">
+        <v>200</v>
+      </c>
+      <c r="C8" s="35">
+        <v>21</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35">
+        <v>558</v>
+      </c>
+      <c r="F8" s="35">
+        <v>379</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="35">
+        <v>27</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0</v>
+      </c>
+      <c r="E9" s="35">
+        <v>35</v>
+      </c>
+      <c r="F9" s="35">
+        <v>8</v>
+      </c>
+      <c r="G9" s="35">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="35">
+        <v>206243</v>
+      </c>
+      <c r="C10" s="35">
+        <v>139294</v>
+      </c>
+      <c r="D10" s="35">
+        <v>0</v>
+      </c>
+      <c r="E10" s="35">
+        <v>1737392</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1670443</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="35">
+        <v>496519</v>
+      </c>
+      <c r="C11" s="35">
+        <v>317959</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0</v>
+      </c>
+      <c r="E11" s="35">
+        <v>2724972</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2546412</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="35">
+        <v>4280</v>
+      </c>
+      <c r="C12" s="35">
+        <v>87</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>6918</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2725</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="35">
+        <v>4</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>4</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="35">
+        <v>4</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
+        <v>4</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="35">
+        <v>1030</v>
+      </c>
+      <c r="C15" s="35">
+        <v>239</v>
+      </c>
+      <c r="D15" s="35">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35">
+        <v>2252</v>
+      </c>
+      <c r="F15" s="35">
+        <v>1461</v>
+      </c>
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="35">
+        <v>8</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0</v>
+      </c>
+      <c r="E16" s="35">
+        <v>8</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="35">
+        <v>9</v>
+      </c>
+      <c r="C17" s="35">
+        <v>0</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>9</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="35">
+        <v>185</v>
+      </c>
+      <c r="C18" s="35">
+        <v>35</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="35">
+        <v>369</v>
+      </c>
+      <c r="F18" s="35">
+        <v>219</v>
+      </c>
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="35">
+        <v>4</v>
+      </c>
+      <c r="C19" s="35">
+        <v>0</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0</v>
+      </c>
+      <c r="E19" s="35">
+        <v>4</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="35">
+        <v>36</v>
+      </c>
+      <c r="C20" s="35">
+        <v>1</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+      <c r="E20" s="35">
+        <v>63</v>
+      </c>
+      <c r="F20" s="35">
+        <v>28</v>
+      </c>
+      <c r="G20" s="35">
+        <v>0</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="35">
+        <v>158</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>170</v>
+      </c>
+      <c r="F21" s="35">
+        <v>12</v>
+      </c>
+      <c r="G21" s="35">
+        <v>0</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="35">
+        <v>32</v>
+      </c>
+      <c r="C22" s="35">
+        <v>1</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0</v>
+      </c>
+      <c r="E22" s="35">
+        <v>55</v>
+      </c>
+      <c r="F22" s="35">
+        <v>24</v>
+      </c>
+      <c r="G22" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G3" s="30" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G4" s="30" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5" s="30" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G6" s="30" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="37">
+        <v>14596137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="37">
+        <v>1719304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1070,13 +1069,13 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1815,177 +1814,177 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="21">
         <v>0.39057740000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="21">
         <v>0.39014720000000003</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="21">
         <v>0.39023099999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="21">
         <v>0.3907175</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="21">
         <v>0.39060810000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="21">
         <v>0.39055060000000003</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="21">
         <v>0.39064090000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="21">
         <v>0.39112740000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="21">
         <v>0.39023000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="21">
         <v>0.3925264</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="21">
         <v>0.39039259999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="21">
         <v>0.3903354</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="21">
         <v>0.39053900000000003</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="21">
         <v>0.39010529999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="21">
         <v>0.39025559999999998</v>
       </c>
@@ -2027,7 +2026,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2563,7 +2562,7 @@
       <c r="G21" s="35">
         <v>0</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="38" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2594,12 +2593,24 @@
       <c r="A23" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="B23" s="36">
+        <v>2858160</v>
+      </c>
+      <c r="C23" s="36">
+        <v>2858160</v>
+      </c>
+      <c r="D23" s="36">
+        <v>0</v>
+      </c>
+      <c r="E23" s="36">
+        <v>25832830</v>
+      </c>
+      <c r="F23" s="36">
+        <v>25832830</v>
+      </c>
+      <c r="G23" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
@@ -2608,20 +2619,38 @@
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="E24" s="36">
+        <v>2</v>
+      </c>
+      <c r="F24" s="36">
+        <v>2</v>
+      </c>
+      <c r="G24" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="B25" s="36">
+        <v>24</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0</v>
+      </c>
+      <c r="E25" s="36">
+        <v>24</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0</v>
+      </c>
+      <c r="G25" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
@@ -2869,10 +2898,16 @@
       <c r="A53" s="28" t="s">
         <v>83</v>
       </c>
+      <c r="B53" s="37">
+        <v>25832830</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
         <v>84</v>
+      </c>
+      <c r="B54" s="37">
+        <v>2858160</v>
       </c>
     </row>
   </sheetData>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Machine_Learning\VAZU\AVAZU-CTR-Prediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1050" windowWidth="25590" windowHeight="13200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="17680" yWindow="1400" windowWidth="15740" windowHeight="17220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="144">
   <si>
     <t>Single Model</t>
   </si>
@@ -670,6 +665,237 @@
   </si>
   <si>
     <t>-1  100001  100002</t>
+  </si>
+  <si>
+    <t>1001     1002     1005     1010     1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0        1        2        3        4 </t>
+  </si>
+  <si>
+    <t>ffb2c209 ffc29ba5 ffc6e801 ffcb6b9a ffcff165</t>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>site_domain</t>
+  </si>
+  <si>
+    <t>site_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffde5f3b ffdec903 fff32e94 fff602a2 </t>
+  </si>
+  <si>
+    <t>0569f928 110ab22d 28905ebd 335d28a8 3e814130</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0414</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4de1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0414</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">73d8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0414</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7733 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>04148</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>dfd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>02b5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6943 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>02b5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a5e1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>02b5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a760 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>02b5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>a846</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>97428 0009f4d7 00161f51 00498a3a</t>
+    </r>
+  </si>
+  <si>
+    <t>0        1        2        4        5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0        2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23993  23994  23995 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120     216     300     320     728 </t>
+  </si>
+  <si>
+    <t>20       36       50       90      250      480</t>
+  </si>
+  <si>
+    <t>2785   2786   2787   2788   2789</t>
+  </si>
+  <si>
+    <t>0        1        2        3</t>
+  </si>
+  <si>
+    <t>33      35      39      41      43</t>
+  </si>
+  <si>
+    <t>100200  100202  100205  100206  100210</t>
+  </si>
+  <si>
+    <t>246    251    253    255</t>
   </si>
 </sst>
 </file>
@@ -949,8 +1175,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1077,7 +1305,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1100,6 +1328,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1122,6 +1351,7 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1465,21 +1695,21 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="22"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="22"/>
     <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.25" style="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1554,7 +1784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1629,7 +1859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1652,7 +1882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.5" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1721,7 +1951,7 @@
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1735,7 +1965,7 @@
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1749,7 +1979,7 @@
         <v>0.39759860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13.5" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1766,7 +1996,7 @@
         <v>0.39835199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +2010,7 @@
         <v>0.3927775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.5" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -1794,7 +2024,7 @@
         <v>0.39249859999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="D16" s="26" t="s">
         <v>63</v>
       </c>
@@ -1802,7 +2032,7 @@
         <v>0.39577820000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="D17" s="26" t="s">
         <v>65</v>
       </c>
@@ -1813,7 +2043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="40" t="s">
         <v>38</v>
       </c>
@@ -1824,7 +2054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="39" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +2065,7 @@
         <v>0.39057740000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="39" t="s">
         <v>44</v>
       </c>
@@ -1846,7 +2076,7 @@
         <v>0.39014720000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="39" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +2087,7 @@
         <v>0.39023099999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="39" t="s">
         <v>46</v>
       </c>
@@ -1868,7 +2098,7 @@
         <v>0.3907175</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="39" t="s">
         <v>47</v>
       </c>
@@ -1879,7 +2109,7 @@
         <v>0.39060810000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="39" t="s">
         <v>48</v>
       </c>
@@ -1890,7 +2120,7 @@
         <v>0.39055060000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="39" t="s">
         <v>49</v>
       </c>
@@ -1901,7 +2131,7 @@
         <v>0.39064090000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="39" t="s">
         <v>54</v>
       </c>
@@ -1912,7 +2142,7 @@
         <v>0.39112740000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="39" t="s">
         <v>55</v>
       </c>
@@ -1923,7 +2153,7 @@
         <v>0.39023000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="39" t="s">
         <v>56</v>
       </c>
@@ -1934,7 +2164,7 @@
         <v>0.3925264</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="39" t="s">
         <v>57</v>
       </c>
@@ -1945,7 +2175,7 @@
         <v>0.39039259999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="39" t="s">
         <v>58</v>
       </c>
@@ -1956,7 +2186,7 @@
         <v>0.3903354</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="39" t="s">
         <v>60</v>
       </c>
@@ -1967,7 +2197,7 @@
         <v>0.39053900000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="39" t="s">
         <v>64</v>
       </c>
@@ -1978,7 +2208,7 @@
         <v>0.39010529999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="39" t="s">
         <v>66</v>
       </c>
@@ -2025,18 +2255,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.6640625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
@@ -2059,7 +2289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="32" t="s">
         <v>79</v>
       </c>
@@ -2082,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="32" t="s">
         <v>80</v>
       </c>
@@ -2099,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="32" t="s">
         <v>85</v>
       </c>
@@ -2122,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="32" t="s">
         <v>86</v>
       </c>
@@ -2148,7 +2378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="32" t="s">
         <v>87</v>
       </c>
@@ -2174,7 +2404,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="32" t="s">
         <v>88</v>
       </c>
@@ -2200,7 +2430,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="32" t="s">
         <v>89</v>
       </c>
@@ -2226,7 +2456,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="32" t="s">
         <v>90</v>
       </c>
@@ -2252,7 +2482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="32" t="s">
         <v>91</v>
       </c>
@@ -2279,7 +2509,7 @@
       </c>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="32" t="s">
         <v>92</v>
       </c>
@@ -2306,7 +2536,7 @@
       </c>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="32" t="s">
         <v>93</v>
       </c>
@@ -2332,7 +2562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="32" t="s">
         <v>94</v>
       </c>
@@ -2358,7 +2588,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="32" t="s">
         <v>95</v>
       </c>
@@ -2384,7 +2614,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="32" t="s">
         <v>96</v>
       </c>
@@ -2410,7 +2640,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="32" t="s">
         <v>116</v>
       </c>
@@ -2436,7 +2666,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="32" t="s">
         <v>118</v>
       </c>
@@ -2462,7 +2692,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="32" t="s">
         <v>99</v>
       </c>
@@ -2488,7 +2718,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="32" t="s">
         <v>100</v>
       </c>
@@ -2514,7 +2744,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="32" t="s">
         <v>101</v>
       </c>
@@ -2540,7 +2770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="32" t="s">
         <v>102</v>
       </c>
@@ -2566,7 +2796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="32" t="s">
         <v>103</v>
       </c>
@@ -2588,8 +2818,11 @@
       <c r="G22" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="33" t="s">
         <v>79</v>
       </c>
@@ -2612,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="33" t="s">
         <v>80</v>
       </c>
@@ -2629,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="33" t="s">
         <v>85</v>
       </c>
@@ -2652,233 +2885,503 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="36">
+        <v>5</v>
+      </c>
+      <c r="C26" s="36">
+        <v>0</v>
+      </c>
+      <c r="D26" s="36">
+        <v>0</v>
+      </c>
+      <c r="E26" s="36">
+        <v>5</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0</v>
+      </c>
+      <c r="G26" s="36">
+        <v>0</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="36">
+        <v>5</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0</v>
+      </c>
+      <c r="D27" s="36">
+        <v>0</v>
+      </c>
+      <c r="E27" s="36">
+        <v>5</v>
+      </c>
+      <c r="F27" s="36">
+        <v>0</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="B28" s="36">
+        <v>2824</v>
+      </c>
+      <c r="C28" s="36">
+        <v>105</v>
+      </c>
+      <c r="D28" s="36">
+        <v>0</v>
+      </c>
+      <c r="E28" s="36">
+        <v>4736</v>
+      </c>
+      <c r="F28" s="36">
+        <v>2017</v>
+      </c>
+      <c r="G28" s="36">
+        <v>0</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B29" s="36">
+        <v>3365</v>
+      </c>
+      <c r="C29" s="36">
+        <v>167</v>
+      </c>
+      <c r="D29" s="36">
+        <v>0</v>
+      </c>
+      <c r="E29" s="36">
+        <v>7744</v>
+      </c>
+      <c r="F29" s="36">
+        <v>4546</v>
+      </c>
+      <c r="G29" s="36">
+        <v>0</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="B30" s="36">
+        <v>21</v>
+      </c>
+      <c r="C30" s="36">
+        <v>0</v>
+      </c>
+      <c r="D30" s="36">
+        <v>0</v>
+      </c>
+      <c r="E30" s="36">
+        <v>25</v>
+      </c>
+      <c r="F30" s="36">
+        <v>4</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="36">
+        <v>85524</v>
+      </c>
+      <c r="C31" s="36">
+        <v>70336</v>
+      </c>
+      <c r="D31" s="36">
+        <v>0</v>
+      </c>
+      <c r="E31" s="36">
+        <v>949399</v>
+      </c>
+      <c r="F31" s="36">
+        <v>934211</v>
+      </c>
+      <c r="G31" s="36">
+        <v>0</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="36">
+        <v>625402</v>
+      </c>
+      <c r="C32" s="36">
+        <v>341556</v>
+      </c>
+      <c r="D32" s="36">
+        <v>0</v>
+      </c>
+      <c r="E32" s="36">
+        <v>4443859</v>
+      </c>
+      <c r="F32" s="36">
+        <v>4160013</v>
+      </c>
+      <c r="G32" s="36">
+        <v>0</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="36">
+        <v>4541</v>
+      </c>
+      <c r="C33" s="36">
+        <v>43</v>
+      </c>
+      <c r="D33" s="36">
+        <v>0</v>
+      </c>
+      <c r="E33" s="36">
+        <v>6462</v>
+      </c>
+      <c r="F33" s="36">
+        <v>1964</v>
+      </c>
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="36">
+        <v>4</v>
+      </c>
+      <c r="C34" s="36">
+        <v>0</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0</v>
+      </c>
+      <c r="E34" s="36">
+        <v>5</v>
+      </c>
+      <c r="F34" s="36">
+        <v>1</v>
+      </c>
+      <c r="G34" s="36">
+        <v>0</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="36">
+        <v>2</v>
+      </c>
+      <c r="C35" s="36">
+        <v>0</v>
+      </c>
+      <c r="D35" s="36">
+        <v>0</v>
+      </c>
+      <c r="E35" s="36">
+        <v>2</v>
+      </c>
+      <c r="F35" s="36">
+        <v>0</v>
+      </c>
+      <c r="G35" s="36">
+        <v>0</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="36">
+        <v>949</v>
+      </c>
+      <c r="C36" s="36">
+        <v>211</v>
+      </c>
+      <c r="D36" s="36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="36">
+        <v>2050</v>
+      </c>
+      <c r="F36" s="36">
+        <v>1312</v>
+      </c>
+      <c r="G36" s="36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="36">
+        <v>5</v>
+      </c>
+      <c r="C37" s="36">
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
+      <c r="E37" s="36">
+        <v>5</v>
+      </c>
+      <c r="F37" s="36">
+        <v>0</v>
+      </c>
+      <c r="G37" s="36">
+        <v>0</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="36">
+        <v>6</v>
+      </c>
+      <c r="C38" s="36">
+        <v>0</v>
+      </c>
+      <c r="D38" s="36">
+        <v>0</v>
+      </c>
+      <c r="E38" s="36">
+        <v>6</v>
+      </c>
+      <c r="F38" s="36">
+        <v>0</v>
+      </c>
+      <c r="G38" s="36">
+        <v>0</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="36">
+        <v>200</v>
+      </c>
+      <c r="C39" s="36">
+        <v>38</v>
+      </c>
+      <c r="D39" s="36">
+        <v>0</v>
+      </c>
+      <c r="E39" s="36">
+        <v>351</v>
+      </c>
+      <c r="F39" s="36">
+        <v>189</v>
+      </c>
+      <c r="G39" s="36">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="36">
+        <v>4</v>
+      </c>
+      <c r="C40" s="36">
+        <v>0</v>
+      </c>
+      <c r="D40" s="36">
+        <v>0</v>
+      </c>
+      <c r="E40" s="36">
+        <v>4</v>
+      </c>
+      <c r="F40" s="36">
+        <v>0</v>
+      </c>
+      <c r="G40" s="36">
+        <v>0</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="36">
+        <v>39</v>
+      </c>
+      <c r="C41" s="36">
+        <v>2</v>
+      </c>
+      <c r="D41" s="36">
+        <v>0</v>
+      </c>
+      <c r="E41" s="36">
+        <v>55</v>
+      </c>
+      <c r="F41" s="36">
+        <v>18</v>
+      </c>
+      <c r="G41" s="36">
+        <v>0</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="36">
+        <v>159</v>
+      </c>
+      <c r="C42" s="36">
+        <v>0</v>
+      </c>
+      <c r="D42" s="36">
+        <v>0</v>
+      </c>
+      <c r="E42" s="36">
+        <v>170</v>
+      </c>
+      <c r="F42" s="36">
+        <v>11</v>
+      </c>
+      <c r="G42" s="36">
+        <v>0</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="36">
+        <v>36</v>
+      </c>
+      <c r="C43" s="36">
+        <v>2</v>
+      </c>
+      <c r="D43" s="36">
+        <v>0</v>
+      </c>
+      <c r="E43" s="36">
+        <v>56</v>
+      </c>
+      <c r="F43" s="36">
+        <v>22</v>
+      </c>
+      <c r="G43" s="36">
+        <v>0</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="28"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="28" t="s">
         <v>81</v>
       </c>
@@ -2886,7 +3389,7 @@
         <v>14596137</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="28" t="s">
         <v>82</v>
       </c>
@@ -2894,7 +3397,7 @@
         <v>1719304</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="28" t="s">
         <v>83</v>
       </c>
@@ -2902,7 +3405,7 @@
         <v>25832830</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="28" t="s">
         <v>84</v>
       </c>
@@ -2912,5 +3415,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="1400" windowWidth="15740" windowHeight="17220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="17680" yWindow="1400" windowWidth="15740" windowHeight="12520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="152">
   <si>
     <t>Single Model</t>
   </si>
@@ -896,13 +896,237 @@
   </si>
   <si>
     <t>246    251    253    255</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">device_id[5:8], device_ip[5:8], device_id[0:4], device_ip[0:4] : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>0.3950799</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">device_id, device_ip : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.440233/0.307161 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>0.3942202</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>device_id, device_ip, device_id[0:4], device_ip[0:4] :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 0.439958/0.306242 |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3941331</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>device_id[0:4], device_ip[0:4] :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 0.441106/0.308379 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>0.3947734</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">device_id, device_id[0:4], device_ip </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 0.440146/0.306704 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>0.3937310</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>device_id, device_ip, device_ip[0:4]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : 0.440032/0.306665 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>0.3942007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">device_id, device_ip, device_id[5:8], device_ip[5:8], device_id[0:4], device_ip[0:4] : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.439799/0.305375 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>0.3947028</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">device_id, device_ip, device_id[5:8], device_ip[5:8], device_id[0:4] : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.440103/0.306095 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>0.3942264/0.3941700</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -985,6 +1209,12 @@
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1175,8 +1405,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1305,7 +1559,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1329,6 +1583,18 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1352,6 +1618,18 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1908,7 +2186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" thickBot="1">
+    <row r="9" spans="1:9" ht="14" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -1979,7 +2257,7 @@
         <v>0.39759860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" thickBot="1">
+    <row r="13" spans="1:9" ht="14" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -2010,7 +2288,7 @@
         <v>0.3927775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" thickBot="1">
+    <row r="15" spans="1:9" ht="14" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -2253,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3413,6 +3691,46 @@
         <v>2858160</v>
       </c>
     </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="1400" windowWidth="15740" windowHeight="12520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12320" yWindow="1400" windowWidth="21100" windowHeight="12520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="156">
   <si>
     <t>Single Model</t>
   </si>
@@ -1119,6 +1119,75 @@
         <rFont val="Cambria"/>
       </rPr>
       <t>0.3942264/0.3941700</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>device_id, device_ip, device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6] : /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">device_id, device_ip, device_id[0:2], device_ip[0:2], device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6] : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.439286/0.305040 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>0.3941644</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">device_id, device_ip, device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6], img_size, -C1415: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>device_id, device_ip, device_id[0:2], device_ip[0:2], device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6], img_size:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 0.439290/0.305044 | </t>
     </r>
   </si>
 </sst>
@@ -1405,8 +1474,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1559,7 +1638,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1595,6 +1674,11 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1630,6 +1714,11 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2531,10 +2620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3731,6 +3820,31 @@
         <v>151</v>
       </c>
     </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="34">
+        <v>0.39405109999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Machine_Learning\VAZU\AVAZU-CTR-Prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="1400" windowWidth="21100" windowHeight="12520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12315" yWindow="1395" windowWidth="21105" windowHeight="12525" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="176">
   <si>
     <t>Single Model</t>
   </si>
@@ -914,6 +919,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>0.3950799</t>
     </r>
@@ -945,6 +951,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>0.3942202</t>
     </r>
@@ -976,6 +983,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 0.3941331</t>
     </r>
@@ -1007,6 +1015,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>0.3947734</t>
     </r>
@@ -1038,6 +1047,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>0.3937310</t>
     </r>
@@ -1069,6 +1079,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>0.3942007</t>
     </r>
@@ -1093,6 +1104,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>0.3947028</t>
     </r>
@@ -1117,6 +1129,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>0.3942264/0.3941700</t>
     </r>
@@ -1156,11 +1169,42 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t>0.3941644</t>
     </r>
   </si>
   <si>
+    <t>img_size</t>
+  </si>
+  <si>
+    <t>device_id[0:4]</t>
+  </si>
+  <si>
+    <t>device_id[0:6]</t>
+  </si>
+  <si>
+    <t>device_ip[0:4]</t>
+  </si>
+  <si>
+    <t>device_ip[0:6]</t>
+  </si>
+  <si>
+    <r>
+      <t>device_id, device_ip, device_id[0:2], device_ip[0:2], device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6], img_size:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 0.439290/0.305044 |</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">device_id, device_ip, device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6], img_size, -C1415: </t>
     </r>
@@ -1172,23 +1216,93 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">/ | </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>device_id, device_ip, device_id[0:2], device_ip[0:2], device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6], img_size:</t>
+      <t xml:space="preserve">/ |  </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.3940767</t>
+    </r>
+  </si>
+  <si>
+    <t>120*20   216*36  300*250   300*50  320*480   320*50   728*90</t>
+  </si>
+  <si>
+    <t>34bb    34bc    34bd    34bf</t>
+  </si>
+  <si>
+    <t>1dce16  1dce98  1dcee7  1dcfc0  1dd22b</t>
+  </si>
+  <si>
+    <t>26fb  26fc  26fd  26fe</t>
+  </si>
+  <si>
+    <t>04260a 042650 04267a 042682</t>
+  </si>
+  <si>
+    <t>28f1    28f2    28f3    28f4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1024*768   120*20   216*36  300*250   300*50  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>320*480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0.439290/0.305044 | </t>
-    </r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">   320*50  480*320   728*90 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>768*1024</t>
+    </r>
+  </si>
+  <si>
+    <t>site_domain[0:2]</t>
+  </si>
+  <si>
+    <t>site_id[0:2]</t>
+  </si>
+  <si>
+    <t>site_id[6:8]</t>
+  </si>
+  <si>
+    <t>site_domain[6:8]</t>
+  </si>
+  <si>
+    <t>app_id[0:2]</t>
+  </si>
+  <si>
+    <t>app_id[6:8]</t>
+  </si>
+  <si>
+    <t>app_domain[0:2]</t>
+  </si>
+  <si>
+    <t>app_domain[6:8]</t>
   </si>
 </sst>
 </file>
@@ -1284,6 +1398,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1557,7 +1672,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,12 +1746,15 @@
     <xf numFmtId="3" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2062,21 +2180,21 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="22"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="22"/>
     <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.1640625" style="1"/>
+    <col min="8" max="8" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2125,7 +2243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2151,7 +2269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2174,7 +2292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2275,7 +2393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14" thickBot="1">
+    <row r="9" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2298,7 +2416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -2318,7 +2436,7 @@
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -2332,7 +2450,7 @@
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -2346,7 +2464,7 @@
         <v>0.39759860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14" thickBot="1">
+    <row r="13" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -2363,7 +2481,7 @@
         <v>0.39835199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -2377,7 +2495,7 @@
         <v>0.3927775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14" thickBot="1">
+    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -2391,7 +2509,7 @@
         <v>0.39249859999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D16" s="26" t="s">
         <v>63</v>
       </c>
@@ -2399,7 +2517,7 @@
         <v>0.39577820000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D17" s="26" t="s">
         <v>65</v>
       </c>
@@ -2410,178 +2528,178 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="21">
         <v>0.39057740000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="21">
         <v>0.39014720000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="21">
         <v>0.39023099999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="21">
         <v>0.3907175</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="21">
         <v>0.39060810000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="21">
         <v>0.39055060000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="21">
         <v>0.39064090000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="21">
         <v>0.39112740000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="21">
         <v>0.39023000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="21">
         <v>0.3925264</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="21">
         <v>0.39039259999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="21">
         <v>0.3903354</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="39" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="21">
         <v>0.39053900000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="21">
         <v>0.39010529999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="21">
         <v>0.39025559999999998</v>
       </c>
@@ -2620,20 +2738,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.6640625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="28"/>
+    <col min="1" max="1" width="14.125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
@@ -2656,7 +2774,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>79</v>
       </c>
@@ -2679,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>80</v>
       </c>
@@ -2696,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>85</v>
       </c>
@@ -2719,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>86</v>
       </c>
@@ -2745,7 +2863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>87</v>
       </c>
@@ -2771,7 +2889,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>88</v>
       </c>
@@ -2797,1051 +2915,1493 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="40">
+        <v>256</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40">
+        <v>0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>256</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="40">
+        <v>256</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <v>256</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B10" s="35">
         <v>200</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C10" s="35">
         <v>21</v>
       </c>
-      <c r="D8" s="35">
-        <v>0</v>
-      </c>
-      <c r="E8" s="35">
+      <c r="D10" s="35">
+        <v>0</v>
+      </c>
+      <c r="E10" s="35">
         <v>558</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F10" s="35">
         <v>379</v>
       </c>
-      <c r="G8" s="35">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28" t="s">
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="32" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="40">
+        <v>136</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40">
+        <v>230</v>
+      </c>
+      <c r="F11" s="40">
+        <v>94</v>
+      </c>
+      <c r="G11" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="40">
+        <v>138</v>
+      </c>
+      <c r="C12" s="40">
+        <v>4</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0</v>
+      </c>
+      <c r="E12" s="40">
+        <v>229</v>
+      </c>
+      <c r="F12" s="40">
+        <v>95</v>
+      </c>
+      <c r="G12" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B13" s="35">
         <v>27</v>
       </c>
-      <c r="C9" s="35">
-        <v>0</v>
-      </c>
-      <c r="D9" s="35">
-        <v>0</v>
-      </c>
-      <c r="E9" s="35">
+      <c r="C13" s="35">
+        <v>0</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
         <v>35</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F13" s="35">
         <v>8</v>
       </c>
-      <c r="G9" s="35">
-        <v>0</v>
-      </c>
-      <c r="H9" s="28" t="s">
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="32" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B14" s="35">
         <v>206243</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C14" s="35">
         <v>139294</v>
       </c>
-      <c r="D10" s="35">
-        <v>0</v>
-      </c>
-      <c r="E10" s="35">
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
         <v>1737392</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F14" s="35">
         <v>1670443</v>
       </c>
-      <c r="G10" s="35">
-        <v>0</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="G14" s="35">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="32" t="s">
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="40">
+        <v>62605</v>
+      </c>
+      <c r="C15" s="40">
+        <v>0</v>
+      </c>
+      <c r="D15" s="40">
+        <v>0</v>
+      </c>
+      <c r="E15" s="40">
+        <v>65536</v>
+      </c>
+      <c r="F15" s="40">
+        <v>2931</v>
+      </c>
+      <c r="G15" s="40">
+        <v>0</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="40">
+        <v>204961</v>
+      </c>
+      <c r="C16" s="40">
+        <v>125049</v>
+      </c>
+      <c r="D16" s="40">
+        <v>0</v>
+      </c>
+      <c r="E16" s="40">
+        <v>1650915</v>
+      </c>
+      <c r="F16" s="40">
+        <v>1571003</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B17" s="35">
         <v>496519</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C17" s="35">
         <v>317959</v>
       </c>
-      <c r="D11" s="35">
-        <v>0</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="D17" s="35">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35">
         <v>2724972</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F17" s="35">
         <v>2546412</v>
       </c>
-      <c r="G11" s="35">
-        <v>0</v>
-      </c>
-      <c r="H11" s="31" t="s">
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="32" t="s">
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="40">
+        <v>65491</v>
+      </c>
+      <c r="C18" s="40">
+        <v>0</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0</v>
+      </c>
+      <c r="E18" s="40">
+        <v>65536</v>
+      </c>
+      <c r="F18" s="40">
+        <v>45</v>
+      </c>
+      <c r="G18" s="40">
+        <v>0</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="40">
+        <v>489247</v>
+      </c>
+      <c r="C19" s="40">
+        <v>267717</v>
+      </c>
+      <c r="D19" s="40">
+        <v>0</v>
+      </c>
+      <c r="E19" s="40">
+        <v>2516152</v>
+      </c>
+      <c r="F19" s="40">
+        <v>2294622</v>
+      </c>
+      <c r="G19" s="40">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B20" s="35">
         <v>4280</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C20" s="35">
         <v>87</v>
       </c>
-      <c r="D12" s="35">
-        <v>0</v>
-      </c>
-      <c r="E12" s="35">
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+      <c r="E20" s="35">
         <v>6918</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F20" s="35">
         <v>2725</v>
       </c>
-      <c r="G12" s="35">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31" t="s">
+      <c r="G20" s="35">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="32" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B21" s="35">
         <v>4</v>
       </c>
-      <c r="C13" s="35">
-        <v>0</v>
-      </c>
-      <c r="D13" s="35">
-        <v>0</v>
-      </c>
-      <c r="E13" s="35">
+      <c r="C21" s="35">
+        <v>0</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35">
         <v>4</v>
       </c>
-      <c r="F13" s="35">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-      <c r="H13" s="28" t="s">
+      <c r="F21" s="35">
+        <v>0</v>
+      </c>
+      <c r="G21" s="35">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="32" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B22" s="35">
         <v>4</v>
       </c>
-      <c r="C14" s="35">
-        <v>0</v>
-      </c>
-      <c r="D14" s="35">
-        <v>0</v>
-      </c>
-      <c r="E14" s="35">
+      <c r="C22" s="35">
+        <v>0</v>
+      </c>
+      <c r="D22" s="35">
+        <v>0</v>
+      </c>
+      <c r="E22" s="35">
         <v>4</v>
       </c>
-      <c r="F14" s="35">
-        <v>0</v>
-      </c>
-      <c r="G14" s="35">
-        <v>0</v>
-      </c>
-      <c r="H14" s="28" t="s">
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="35">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="32" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B23" s="35">
         <v>1030</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C23" s="35">
         <v>239</v>
       </c>
-      <c r="D15" s="35">
-        <v>0</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D23" s="35">
+        <v>0</v>
+      </c>
+      <c r="E23" s="35">
         <v>2252</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F23" s="35">
         <v>1461</v>
       </c>
-      <c r="G15" s="35">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28" t="s">
+      <c r="G23" s="35">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="32" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B24" s="35">
         <v>8</v>
       </c>
-      <c r="C16" s="35">
-        <v>0</v>
-      </c>
-      <c r="D16" s="35">
-        <v>0</v>
-      </c>
-      <c r="E16" s="35">
+      <c r="C24" s="35">
+        <v>0</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0</v>
+      </c>
+      <c r="E24" s="35">
         <v>8</v>
       </c>
-      <c r="F16" s="35">
-        <v>0</v>
-      </c>
-      <c r="G16" s="35">
-        <v>0</v>
-      </c>
-      <c r="H16" s="28" t="s">
+      <c r="F24" s="35">
+        <v>0</v>
+      </c>
+      <c r="G24" s="35">
+        <v>0</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="32" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B25" s="35">
         <v>9</v>
       </c>
-      <c r="C17" s="35">
-        <v>0</v>
-      </c>
-      <c r="D17" s="35">
-        <v>0</v>
-      </c>
-      <c r="E17" s="35">
+      <c r="C25" s="35">
+        <v>0</v>
+      </c>
+      <c r="D25" s="35">
+        <v>0</v>
+      </c>
+      <c r="E25" s="35">
         <v>9</v>
       </c>
-      <c r="F17" s="35">
-        <v>0</v>
-      </c>
-      <c r="G17" s="35">
-        <v>0</v>
-      </c>
-      <c r="H17" s="28" t="s">
+      <c r="F25" s="35">
+        <v>0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>0</v>
+      </c>
+      <c r="H25" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="32" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="40">
+        <v>10</v>
+      </c>
+      <c r="C26" s="40">
+        <v>0</v>
+      </c>
+      <c r="D26" s="40">
+        <v>0</v>
+      </c>
+      <c r="E26" s="40">
+        <v>10</v>
+      </c>
+      <c r="F26" s="40">
+        <v>0</v>
+      </c>
+      <c r="G26" s="40">
+        <v>0</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B27" s="35">
         <v>185</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C27" s="35">
         <v>35</v>
       </c>
-      <c r="D18" s="35">
-        <v>0</v>
-      </c>
-      <c r="E18" s="35">
+      <c r="D27" s="35">
+        <v>0</v>
+      </c>
+      <c r="E27" s="35">
         <v>369</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F27" s="35">
         <v>219</v>
       </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="28" t="s">
+      <c r="G27" s="35">
+        <v>0</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="32" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B28" s="35">
         <v>4</v>
       </c>
-      <c r="C19" s="35">
-        <v>0</v>
-      </c>
-      <c r="D19" s="35">
-        <v>0</v>
-      </c>
-      <c r="E19" s="35">
+      <c r="C28" s="35">
+        <v>0</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+      <c r="E28" s="35">
         <v>4</v>
       </c>
-      <c r="F19" s="35">
-        <v>0</v>
-      </c>
-      <c r="G19" s="35">
-        <v>0</v>
-      </c>
-      <c r="H19" s="28" t="s">
+      <c r="F28" s="35">
+        <v>0</v>
+      </c>
+      <c r="G28" s="35">
+        <v>0</v>
+      </c>
+      <c r="H28" s="28" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="32" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B29" s="35">
         <v>36</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C29" s="35">
         <v>1</v>
       </c>
-      <c r="D20" s="35">
-        <v>0</v>
-      </c>
-      <c r="E20" s="35">
+      <c r="D29" s="35">
+        <v>0</v>
+      </c>
+      <c r="E29" s="35">
         <v>63</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F29" s="35">
         <v>28</v>
       </c>
-      <c r="G20" s="35">
-        <v>0</v>
-      </c>
-      <c r="H20" s="28" t="s">
+      <c r="G29" s="35">
+        <v>0</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="32" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B30" s="35">
         <v>158</v>
       </c>
-      <c r="C21" s="35">
-        <v>0</v>
-      </c>
-      <c r="D21" s="35">
-        <v>0</v>
-      </c>
-      <c r="E21" s="35">
+      <c r="C30" s="35">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0</v>
+      </c>
+      <c r="E30" s="35">
         <v>170</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F30" s="35">
         <v>12</v>
       </c>
-      <c r="G21" s="35">
-        <v>0</v>
-      </c>
-      <c r="H21" s="38" t="s">
+      <c r="G30" s="35">
+        <v>0</v>
+      </c>
+      <c r="H30" s="38" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="32" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B31" s="35">
         <v>32</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C31" s="35">
         <v>1</v>
       </c>
-      <c r="D22" s="35">
-        <v>0</v>
-      </c>
-      <c r="E22" s="35">
+      <c r="D31" s="35">
+        <v>0</v>
+      </c>
+      <c r="E31" s="35">
         <v>55</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F31" s="35">
         <v>24</v>
       </c>
-      <c r="G22" s="35">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28" t="s">
+      <c r="G31" s="35">
+        <v>0</v>
+      </c>
+      <c r="H31" s="28" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="33" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B32" s="36">
         <v>2858160</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C32" s="36">
         <v>2858160</v>
       </c>
-      <c r="D23" s="36">
-        <v>0</v>
-      </c>
-      <c r="E23" s="36">
+      <c r="D32" s="36">
+        <v>0</v>
+      </c>
+      <c r="E32" s="36">
         <v>25832830</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F32" s="36">
         <v>25832830</v>
       </c>
-      <c r="G23" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="33" t="s">
+      <c r="G32" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36">
         <v>2</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F33" s="36">
         <v>2</v>
       </c>
-      <c r="G24" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="33" t="s">
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B34" s="36">
         <v>24</v>
       </c>
-      <c r="C25" s="36">
-        <v>0</v>
-      </c>
-      <c r="D25" s="36">
-        <v>0</v>
-      </c>
-      <c r="E25" s="36">
+      <c r="C34" s="36">
+        <v>0</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0</v>
+      </c>
+      <c r="E34" s="36">
         <v>24</v>
       </c>
-      <c r="F25" s="36">
-        <v>0</v>
-      </c>
-      <c r="G25" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="33" t="s">
+      <c r="F34" s="36">
+        <v>0</v>
+      </c>
+      <c r="G34" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B35" s="36">
         <v>5</v>
       </c>
-      <c r="C26" s="36">
-        <v>0</v>
-      </c>
-      <c r="D26" s="36">
-        <v>0</v>
-      </c>
-      <c r="E26" s="36">
+      <c r="C35" s="36">
+        <v>0</v>
+      </c>
+      <c r="D35" s="36">
+        <v>0</v>
+      </c>
+      <c r="E35" s="36">
         <v>5</v>
       </c>
-      <c r="F26" s="36">
-        <v>0</v>
-      </c>
-      <c r="G26" s="36">
-        <v>0</v>
-      </c>
-      <c r="H26" s="28" t="s">
+      <c r="F35" s="36">
+        <v>0</v>
+      </c>
+      <c r="G35" s="36">
+        <v>0</v>
+      </c>
+      <c r="H35" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="33" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B36" s="36">
         <v>5</v>
       </c>
-      <c r="C27" s="36">
-        <v>0</v>
-      </c>
-      <c r="D27" s="36">
-        <v>0</v>
-      </c>
-      <c r="E27" s="36">
+      <c r="C36" s="36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="36">
         <v>5</v>
       </c>
-      <c r="F27" s="36">
-        <v>0</v>
-      </c>
-      <c r="G27" s="36">
-        <v>0</v>
-      </c>
-      <c r="H27" s="28" t="s">
+      <c r="F36" s="36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="33" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B37" s="36">
         <v>2824</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C37" s="36">
         <v>105</v>
       </c>
-      <c r="D28" s="36">
-        <v>0</v>
-      </c>
-      <c r="E28" s="36">
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
+      <c r="E37" s="36">
         <v>4736</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F37" s="36">
         <v>2017</v>
       </c>
-      <c r="G28" s="36">
-        <v>0</v>
-      </c>
-      <c r="H28" s="28" t="s">
+      <c r="G37" s="36">
+        <v>0</v>
+      </c>
+      <c r="H37" s="28" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="33" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="40">
+        <v>256</v>
+      </c>
+      <c r="C38" s="40">
+        <v>0</v>
+      </c>
+      <c r="D38" s="40">
+        <v>0</v>
+      </c>
+      <c r="E38" s="40">
+        <v>256</v>
+      </c>
+      <c r="F38" s="40">
+        <v>0</v>
+      </c>
+      <c r="G38" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="40">
+        <v>256</v>
+      </c>
+      <c r="C39" s="40">
+        <v>0</v>
+      </c>
+      <c r="D39" s="40">
+        <v>0</v>
+      </c>
+      <c r="E39" s="40">
+        <v>256</v>
+      </c>
+      <c r="F39" s="40">
+        <v>0</v>
+      </c>
+      <c r="G39" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B40" s="36">
         <v>3365</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C40" s="36">
         <v>167</v>
       </c>
-      <c r="D29" s="36">
-        <v>0</v>
-      </c>
-      <c r="E29" s="36">
+      <c r="D40" s="36">
+        <v>0</v>
+      </c>
+      <c r="E40" s="36">
         <v>7744</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F40" s="36">
         <v>4546</v>
       </c>
-      <c r="G29" s="36">
-        <v>0</v>
-      </c>
-      <c r="H29" s="28" t="s">
+      <c r="G40" s="36">
+        <v>0</v>
+      </c>
+      <c r="H40" s="28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="33" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="40">
+        <v>257</v>
+      </c>
+      <c r="C41" s="40">
+        <v>0</v>
+      </c>
+      <c r="D41" s="40">
+        <v>0</v>
+      </c>
+      <c r="E41" s="40">
+        <v>257</v>
+      </c>
+      <c r="F41" s="40">
+        <v>0</v>
+      </c>
+      <c r="G41" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="40">
+        <v>257</v>
+      </c>
+      <c r="C42" s="40">
+        <v>0</v>
+      </c>
+      <c r="D42" s="40">
+        <v>0</v>
+      </c>
+      <c r="E42" s="40">
+        <v>257</v>
+      </c>
+      <c r="F42" s="40">
+        <v>0</v>
+      </c>
+      <c r="G42" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B43" s="36">
         <v>21</v>
       </c>
-      <c r="C30" s="36">
-        <v>0</v>
-      </c>
-      <c r="D30" s="36">
-        <v>0</v>
-      </c>
-      <c r="E30" s="36">
+      <c r="C43" s="36">
+        <v>0</v>
+      </c>
+      <c r="D43" s="36">
+        <v>0</v>
+      </c>
+      <c r="E43" s="36">
         <v>25</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F43" s="36">
         <v>4</v>
       </c>
-      <c r="G30" s="36">
-        <v>0</v>
-      </c>
-      <c r="H30" s="28" t="s">
+      <c r="G43" s="36">
+        <v>0</v>
+      </c>
+      <c r="H43" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="33" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B44" s="36">
         <v>85524</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C44" s="36">
         <v>70336</v>
       </c>
-      <c r="D31" s="36">
-        <v>0</v>
-      </c>
-      <c r="E31" s="36">
+      <c r="D44" s="36">
+        <v>0</v>
+      </c>
+      <c r="E44" s="36">
         <v>949399</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F44" s="36">
         <v>934211</v>
       </c>
-      <c r="G31" s="36">
-        <v>0</v>
-      </c>
-      <c r="H31" s="28" t="s">
+      <c r="G44" s="36">
+        <v>0</v>
+      </c>
+      <c r="H44" s="28" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="33" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="40">
+        <v>47736</v>
+      </c>
+      <c r="C45" s="40">
+        <v>0</v>
+      </c>
+      <c r="D45" s="40">
+        <v>0</v>
+      </c>
+      <c r="E45" s="40">
+        <v>65536</v>
+      </c>
+      <c r="F45" s="40">
+        <v>17800</v>
+      </c>
+      <c r="G45" s="40">
+        <v>0</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="40">
+        <v>85289</v>
+      </c>
+      <c r="C46" s="40">
+        <v>66342</v>
+      </c>
+      <c r="D46" s="40">
+        <v>0</v>
+      </c>
+      <c r="E46" s="40">
+        <v>922952</v>
+      </c>
+      <c r="F46" s="40">
+        <v>904005</v>
+      </c>
+      <c r="G46" s="40">
+        <v>0</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B47" s="36">
         <v>625402</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C47" s="36">
         <v>341556</v>
       </c>
-      <c r="D32" s="36">
-        <v>0</v>
-      </c>
-      <c r="E32" s="36">
+      <c r="D47" s="36">
+        <v>0</v>
+      </c>
+      <c r="E47" s="36">
         <v>4443859</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F47" s="36">
         <v>4160013</v>
       </c>
-      <c r="G32" s="36">
-        <v>0</v>
-      </c>
-      <c r="H32" s="28" t="s">
+      <c r="G47" s="36">
+        <v>0</v>
+      </c>
+      <c r="H47" s="28" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="33" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="40">
+        <v>65531</v>
+      </c>
+      <c r="C48" s="40">
+        <v>0</v>
+      </c>
+      <c r="D48" s="40">
+        <v>0</v>
+      </c>
+      <c r="E48" s="40">
+        <v>65536</v>
+      </c>
+      <c r="F48" s="40">
+        <v>5</v>
+      </c>
+      <c r="G48" s="40">
+        <v>0</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="40">
+        <v>613905</v>
+      </c>
+      <c r="C49" s="40">
+        <v>259722</v>
+      </c>
+      <c r="D49" s="40">
+        <v>0</v>
+      </c>
+      <c r="E49" s="40">
+        <v>3905624</v>
+      </c>
+      <c r="F49" s="40">
+        <v>3551441</v>
+      </c>
+      <c r="G49" s="40">
+        <v>0</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B50" s="36">
         <v>4541</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C50" s="36">
         <v>43</v>
       </c>
-      <c r="D33" s="36">
-        <v>0</v>
-      </c>
-      <c r="E33" s="36">
+      <c r="D50" s="36">
+        <v>0</v>
+      </c>
+      <c r="E50" s="36">
         <v>6462</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F50" s="36">
         <v>1964</v>
       </c>
-      <c r="G33" s="36">
-        <v>0</v>
-      </c>
-      <c r="H33" s="28" t="s">
+      <c r="G50" s="36">
+        <v>0</v>
+      </c>
+      <c r="H50" s="28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="33" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B51" s="36">
         <v>4</v>
       </c>
-      <c r="C34" s="36">
-        <v>0</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0</v>
-      </c>
-      <c r="E34" s="36">
+      <c r="C51" s="36">
+        <v>0</v>
+      </c>
+      <c r="D51" s="36">
+        <v>0</v>
+      </c>
+      <c r="E51" s="36">
         <v>5</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F51" s="36">
         <v>1</v>
       </c>
-      <c r="G34" s="36">
-        <v>0</v>
-      </c>
-      <c r="H34" s="28" t="s">
+      <c r="G51" s="36">
+        <v>0</v>
+      </c>
+      <c r="H51" s="28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="33" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B52" s="36">
         <v>2</v>
       </c>
-      <c r="C35" s="36">
-        <v>0</v>
-      </c>
-      <c r="D35" s="36">
-        <v>0</v>
-      </c>
-      <c r="E35" s="36">
+      <c r="C52" s="36">
+        <v>0</v>
+      </c>
+      <c r="D52" s="36">
+        <v>0</v>
+      </c>
+      <c r="E52" s="36">
         <v>2</v>
       </c>
-      <c r="F35" s="36">
-        <v>0</v>
-      </c>
-      <c r="G35" s="36">
-        <v>0</v>
-      </c>
-      <c r="H35" s="28" t="s">
+      <c r="F52" s="36">
+        <v>0</v>
+      </c>
+      <c r="G52" s="36">
+        <v>0</v>
+      </c>
+      <c r="H52" s="28" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="33" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B53" s="36">
         <v>949</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C53" s="36">
         <v>211</v>
       </c>
-      <c r="D36" s="36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="36">
+      <c r="D53" s="36">
+        <v>0</v>
+      </c>
+      <c r="E53" s="36">
         <v>2050</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F53" s="36">
         <v>1312</v>
       </c>
-      <c r="G36" s="36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="28" t="s">
+      <c r="G53" s="36">
+        <v>0</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="33" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B54" s="36">
         <v>5</v>
       </c>
-      <c r="C37" s="36">
-        <v>0</v>
-      </c>
-      <c r="D37" s="36">
-        <v>0</v>
-      </c>
-      <c r="E37" s="36">
+      <c r="C54" s="36">
+        <v>0</v>
+      </c>
+      <c r="D54" s="36">
+        <v>0</v>
+      </c>
+      <c r="E54" s="36">
         <v>5</v>
       </c>
-      <c r="F37" s="36">
-        <v>0</v>
-      </c>
-      <c r="G37" s="36">
-        <v>0</v>
-      </c>
-      <c r="H37" s="28" t="s">
+      <c r="F54" s="36">
+        <v>0</v>
+      </c>
+      <c r="G54" s="36">
+        <v>0</v>
+      </c>
+      <c r="H54" s="28" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="33" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B55" s="36">
         <v>6</v>
       </c>
-      <c r="C38" s="36">
-        <v>0</v>
-      </c>
-      <c r="D38" s="36">
-        <v>0</v>
-      </c>
-      <c r="E38" s="36">
+      <c r="C55" s="36">
+        <v>0</v>
+      </c>
+      <c r="D55" s="36">
+        <v>0</v>
+      </c>
+      <c r="E55" s="36">
         <v>6</v>
       </c>
-      <c r="F38" s="36">
-        <v>0</v>
-      </c>
-      <c r="G38" s="36">
-        <v>0</v>
-      </c>
-      <c r="H38" s="28" t="s">
+      <c r="F55" s="36">
+        <v>0</v>
+      </c>
+      <c r="G55" s="36">
+        <v>0</v>
+      </c>
+      <c r="H55" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="33" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="40">
+        <v>7</v>
+      </c>
+      <c r="C56" s="40">
+        <v>0</v>
+      </c>
+      <c r="D56" s="40">
+        <v>0</v>
+      </c>
+      <c r="E56" s="40">
+        <v>7</v>
+      </c>
+      <c r="F56" s="40">
+        <v>0</v>
+      </c>
+      <c r="G56" s="40">
+        <v>0</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B57" s="36">
         <v>200</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C57" s="36">
         <v>38</v>
       </c>
-      <c r="D39" s="36">
-        <v>0</v>
-      </c>
-      <c r="E39" s="36">
+      <c r="D57" s="36">
+        <v>0</v>
+      </c>
+      <c r="E57" s="36">
         <v>351</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F57" s="36">
         <v>189</v>
       </c>
-      <c r="G39" s="36">
-        <v>0</v>
-      </c>
-      <c r="H39" s="28" t="s">
+      <c r="G57" s="36">
+        <v>0</v>
+      </c>
+      <c r="H57" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="33" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B58" s="36">
         <v>4</v>
       </c>
-      <c r="C40" s="36">
-        <v>0</v>
-      </c>
-      <c r="D40" s="36">
-        <v>0</v>
-      </c>
-      <c r="E40" s="36">
+      <c r="C58" s="36">
+        <v>0</v>
+      </c>
+      <c r="D58" s="36">
+        <v>0</v>
+      </c>
+      <c r="E58" s="36">
         <v>4</v>
       </c>
-      <c r="F40" s="36">
-        <v>0</v>
-      </c>
-      <c r="G40" s="36">
-        <v>0</v>
-      </c>
-      <c r="H40" s="28" t="s">
+      <c r="F58" s="36">
+        <v>0</v>
+      </c>
+      <c r="G58" s="36">
+        <v>0</v>
+      </c>
+      <c r="H58" s="28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="33" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B59" s="36">
         <v>39</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C59" s="36">
         <v>2</v>
       </c>
-      <c r="D41" s="36">
-        <v>0</v>
-      </c>
-      <c r="E41" s="36">
+      <c r="D59" s="36">
+        <v>0</v>
+      </c>
+      <c r="E59" s="36">
         <v>55</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F59" s="36">
         <v>18</v>
       </c>
-      <c r="G41" s="36">
-        <v>0</v>
-      </c>
-      <c r="H41" s="28" t="s">
+      <c r="G59" s="36">
+        <v>0</v>
+      </c>
+      <c r="H59" s="28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="33" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B60" s="36">
         <v>159</v>
       </c>
-      <c r="C42" s="36">
-        <v>0</v>
-      </c>
-      <c r="D42" s="36">
-        <v>0</v>
-      </c>
-      <c r="E42" s="36">
+      <c r="C60" s="36">
+        <v>0</v>
+      </c>
+      <c r="D60" s="36">
+        <v>0</v>
+      </c>
+      <c r="E60" s="36">
         <v>170</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F60" s="36">
         <v>11</v>
       </c>
-      <c r="G42" s="36">
-        <v>0</v>
-      </c>
-      <c r="H42" s="28" t="s">
+      <c r="G60" s="36">
+        <v>0</v>
+      </c>
+      <c r="H60" s="28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="33" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B61" s="36">
         <v>36</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C61" s="36">
         <v>2</v>
       </c>
-      <c r="D43" s="36">
-        <v>0</v>
-      </c>
-      <c r="E43" s="36">
+      <c r="D61" s="36">
+        <v>0</v>
+      </c>
+      <c r="E61" s="36">
         <v>56</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F61" s="36">
         <v>22</v>
       </c>
-      <c r="G43" s="36">
-        <v>0</v>
-      </c>
-      <c r="H43" s="28" t="s">
+      <c r="G61" s="36">
+        <v>0</v>
+      </c>
+      <c r="H61" s="28" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="28" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="28" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="28" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="28" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="28" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="28"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="28" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="28"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B69" s="37">
         <v>14596137</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="28" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B70" s="37">
         <v>1719304</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="28" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B71" s="37">
         <v>25832830</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="28" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B72" s="37">
         <v>2858160</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="34" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="34" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="34" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="34" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="34" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="34" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="34" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="34" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="28" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="28" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="28" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="28" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="28" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="34">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="34">
         <v>0.39405109999999999</v>
       </c>
     </row>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1748,13 +1748,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2529,177 +2529,177 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="21">
         <v>0.39057740000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="21">
         <v>0.39014720000000003</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="21">
         <v>0.39023099999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="21">
         <v>0.3907175</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="21">
         <v>0.39060810000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="21">
         <v>0.39055060000000003</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="21">
         <v>0.39064090000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="21">
         <v>0.39112740000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="21">
         <v>0.39023000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="21">
         <v>0.3925264</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="21">
         <v>0.39039259999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="21">
         <v>0.3903354</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="21">
         <v>0.39053900000000003</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="21">
         <v>0.39010529999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="21">
         <v>0.39025559999999998</v>
       </c>
@@ -2741,7 +2741,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3643,7 +3643,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="41" t="s">
         <v>126</v>
       </c>
       <c r="B37" s="36">
@@ -3715,7 +3715,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="41" t="s">
         <v>127</v>
       </c>
       <c r="B40" s="36">
@@ -3969,7 +3969,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="41" t="s">
         <v>93</v>
       </c>
       <c r="B50" s="36">

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Machine_Learning\VAZU\AVAZU-CTR-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\AVAZU-CTR-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="1395" windowWidth="21105" windowHeight="12525" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12312" yWindow="1392" windowWidth="21108" windowHeight="12528" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="177">
   <si>
     <t>Single Model</t>
   </si>
@@ -672,15 +672,6 @@
     <t>-1  100001  100002</t>
   </si>
   <si>
-    <t>1001     1002     1005     1010     1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0        1        2        3        4 </t>
-  </si>
-  <si>
-    <t>ffb2c209 ffc29ba5 ffc6e801 ffcb6b9a ffcff165</t>
-  </si>
-  <si>
     <t>site_id</t>
   </si>
   <si>
@@ -690,21 +681,31 @@
     <t>site_category</t>
   </si>
   <si>
-    <t xml:space="preserve">ffde5f3b ffdec903 fff32e94 fff602a2 </t>
-  </si>
-  <si>
-    <t>0569f928 110ab22d 28905ebd 335d28a8 3e814130</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+    <t>246    251    253    255</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">device_id[5:8], device_ip[5:8], device_id[0:4], device_ip[0:4] : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>0414</t>
-    </r>
+      <t>0.3950799</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -713,17 +714,30 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4de1 </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">device_id, device_ip : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.440233/0.307161 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>0414</t>
-    </r>
+      <t>0.3942202</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -732,17 +746,30 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">73d8 </t>
-    </r>
-    <r>
-      <rPr>
+      <t>device_id, device_ip, device_id[0:4], device_ip[0:4] :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 0.439958/0.306242 |</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>0414</t>
-    </r>
+      <t xml:space="preserve"> 0.3941331</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -751,17 +778,30 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7733 </t>
-    </r>
-    <r>
-      <rPr>
+      <t>device_id[0:4], device_ip[0:4] :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 0.441106/0.308379 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>04148</t>
-    </r>
+      <t>0.3947734</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -770,19 +810,30 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>dfd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve">device_id, device_id[0:4], device_ip </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 0.440146/0.306704 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>02b5</t>
-    </r>
+      <t>0.3937310</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -791,26 +842,214 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6943 </t>
-    </r>
-    <r>
-      <rPr>
+      <t>device_id, device_ip, device_ip[0:4]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : 0.440032/0.306665 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>02b5</t>
-    </r>
-    <r>
-      <rPr>
+      <t>0.3942007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">device_id, device_ip, device_id[5:8], device_ip[5:8], device_id[0:4], device_ip[0:4] : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.439799/0.305375 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.3947028</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">device_id, device_ip, device_id[5:8], device_ip[5:8], device_id[0:4] : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.440103/0.306095 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.3942264/0.3941700</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>device_id, device_ip, device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6] : /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">device_id, device_ip, device_id[0:2], device_ip[0:2], device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6] : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.439286/0.305040 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.3941644</t>
+    </r>
+  </si>
+  <si>
+    <t>img_size</t>
+  </si>
+  <si>
+    <t>device_id[0:4]</t>
+  </si>
+  <si>
+    <t>device_id[0:6]</t>
+  </si>
+  <si>
+    <t>device_ip[0:4]</t>
+  </si>
+  <si>
+    <t>device_ip[0:6]</t>
+  </si>
+  <si>
+    <r>
+      <t>device_id, device_ip, device_id[0:2], device_ip[0:2], device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6], img_size:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 0.439290/0.305044 |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">device_id, device_ip, device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6], img_size, -C1415: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ |  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.3940767</t>
+    </r>
+  </si>
+  <si>
+    <t>120*20   216*36  300*250   300*50  320*480   320*50   728*90</t>
+  </si>
+  <si>
+    <t>34bb    34bc    34bd    34bf</t>
+  </si>
+  <si>
+    <t>1dce16  1dce98  1dcee7  1dcfc0  1dd22b</t>
+  </si>
+  <si>
+    <t>26fb  26fc  26fd  26fe</t>
+  </si>
+  <si>
+    <t>04260a 042650 04267a 042682</t>
+  </si>
+  <si>
+    <t>28f1    28f2    28f3    28f4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1024*768   120*20   216*36  300*250   300*50  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>320*480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">a5e1 </t>
+      <t xml:space="preserve">   320*50  480*320   728*90 </t>
     </r>
     <r>
       <rPr>
@@ -819,464 +1058,6 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>02b5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">a760 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>02b5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>a846</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>97428 0009f4d7 00161f51 00498a3a</t>
-    </r>
-  </si>
-  <si>
-    <t>0        1        2        4        5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0        2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23993  23994  23995 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">120     216     300     320     728 </t>
-  </si>
-  <si>
-    <t>20       36       50       90      250      480</t>
-  </si>
-  <si>
-    <t>2785   2786   2787   2788   2789</t>
-  </si>
-  <si>
-    <t>0        1        2        3</t>
-  </si>
-  <si>
-    <t>33      35      39      41      43</t>
-  </si>
-  <si>
-    <t>100200  100202  100205  100206  100210</t>
-  </si>
-  <si>
-    <t>246    251    253    255</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">device_id[5:8], device_ip[5:8], device_id[0:4], device_ip[0:4] : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.3950799</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">device_id, device_ip : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.440233/0.307161 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.3942202</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>device_id, device_ip, device_id[0:4], device_ip[0:4] :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0.439958/0.306242 |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0.3941331</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>device_id[0:4], device_ip[0:4] :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0.441106/0.308379 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.3947734</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">device_id, device_id[0:4], device_ip </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: 0.440146/0.306704 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.3937310</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>device_id, device_ip, device_ip[0:4]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> : 0.440032/0.306665 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.3942007</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">device_id, device_ip, device_id[5:8], device_ip[5:8], device_id[0:4], device_ip[0:4] : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.439799/0.305375 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.3947028</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">device_id, device_ip, device_id[5:8], device_ip[5:8], device_id[0:4] : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.440103/0.306095 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.3942264/0.3941700</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>device_id, device_ip, device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6] : /</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">device_id, device_ip, device_id[0:2], device_ip[0:2], device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6] : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.439286/0.305040 | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.3941644</t>
-    </r>
-  </si>
-  <si>
-    <t>img_size</t>
-  </si>
-  <si>
-    <t>device_id[0:4]</t>
-  </si>
-  <si>
-    <t>device_id[0:6]</t>
-  </si>
-  <si>
-    <t>device_ip[0:4]</t>
-  </si>
-  <si>
-    <t>device_ip[0:6]</t>
-  </si>
-  <si>
-    <r>
-      <t>device_id, device_ip, device_id[0:2], device_ip[0:2], device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6], img_size:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 0.439290/0.305044 |</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">device_id, device_ip, device_id[0:4], device_ip[0:4], device_id[0:6], device_ip[0:6], img_size, -C1415: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ |  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>0.3940767</t>
-    </r>
-  </si>
-  <si>
-    <t>120*20   216*36  300*250   300*50  320*480   320*50   728*90</t>
-  </si>
-  <si>
-    <t>34bb    34bc    34bd    34bf</t>
-  </si>
-  <si>
-    <t>1dce16  1dce98  1dcee7  1dcfc0  1dd22b</t>
-  </si>
-  <si>
-    <t>26fb  26fc  26fd  26fe</t>
-  </si>
-  <si>
-    <t>04260a 042650 04267a 042682</t>
-  </si>
-  <si>
-    <t>28f1    28f2    28f3    28f4</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1024*768   120*20   216*36  300*250   300*50  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>320*480</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">   320*50  480*320   728*90 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>768*1024</t>
     </r>
   </si>
@@ -1303,6 +1084,61 @@
   </si>
   <si>
     <t>app_domain[6:8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1005, 26519952), (1002, 2086275), (1012, 82511), (1001, 1868), (1010, 384)
+</t>
+  </si>
+  <si>
+    <t>(0, 17789823), (1, 10874217), (2, 14559), (4, 7911), (3, 4480)</t>
+  </si>
+  <si>
+    <t>('1fbe01fe', 6916012), ('e151e245', 2906619), ('d9750ee7', 1024058), ('5b08c53b', 1009141), ('5b4d2eda', 860333)</t>
+  </si>
+  <si>
+    <t>('f3845767', 7729065), ('7e091613', 3599088), ('7687a86e', 1421713), ('98572c79', 1059379), ('16a36ef3', 952270)</t>
+  </si>
+  <si>
+    <t>('f028772b', 14481847), ('28905ebd', 7868792), ('3e814130', 3339719), (nan, 2087974), ('f66779e6', 261679)</t>
+  </si>
+  <si>
+    <t>('a99f214a', 26621212), ('0f7c61dc', 21356), ('c357dbff', 19667), ('3cdb4052', 3069), ('73b81e30', 1182)</t>
+  </si>
+  <si>
+    <t>('6b9769f2', 195121), ('431b3174', 122340), ('930ec31d', 76092), ('2f323f36', 75591), ('af62faf4', 74863)</t>
+  </si>
+  <si>
+    <t>('8a4875bd', 2563983), ('d787e91b', 1211052), ('1f0bc64f', 1059484), ('76dc4769', 786370), ('be6db1d7', 627924)</t>
+  </si>
+  <si>
+    <t>(1, 26604300), (0, 2086275), (5, 342), (4, 42), (2, 31)</t>
+  </si>
+  <si>
+    <t>(0, 27525465), (2, 1165525)</t>
+  </si>
+  <si>
+    <t>(19771, 742783), (19772, 740810), (16208, 671300), (8330, 615659), (20108, 597525)</t>
+  </si>
+  <si>
+    <t>(320, 26278327), (300, 2097548), (216, 299524), (728, 15101), (120, 490)</t>
+  </si>
+  <si>
+    <t>(1722, 3976039), (2227, 1493664), (1800, 1215589), (2545, 1187719), (2528, 844260)</t>
+  </si>
+  <si>
+    <t>(50, 26531126), (250, 1843360), (36, 299524), (90, 15101), (480, 1389)</t>
+  </si>
+  <si>
+    <t>(0, 14131427), (3, 7877237), (2, 6248931), (1, 433395)</t>
+  </si>
+  <si>
+    <t>(35, 9822663), (39, 6985204), (167, 2989510), (431, 898816), (935, 780017)</t>
+  </si>
+  <si>
+    <t>(-1, 14002661), (100084, 2620369), (100077, 1644553), (100075, 1616508), (100081, 1403511)</t>
+  </si>
+  <si>
+    <t>(23, 7118751), (221, 4332031), (79, 4140703), (48, 1978013), (33, 1640490)</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1508,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,6 +1591,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2180,21 +2018,21 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="22"/>
+    <col min="4" max="4" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="22"/>
     <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.125" style="1"/>
+    <col min="8" max="8" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +2081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2292,7 +2130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2318,7 +2156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2367,7 +2205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2416,7 +2254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -2436,7 +2274,7 @@
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -2450,7 +2288,7 @@
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -2464,7 +2302,7 @@
         <v>0.39759860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -2481,7 +2319,7 @@
         <v>0.39835199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -2495,7 +2333,7 @@
         <v>0.3927775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -2509,7 +2347,7 @@
         <v>0.39249859999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="26" t="s">
         <v>63</v>
       </c>
@@ -2517,7 +2355,7 @@
         <v>0.39577820000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" s="26" t="s">
         <v>65</v>
       </c>
@@ -2528,7 +2366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>38</v>
       </c>
@@ -2539,7 +2377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>39</v>
       </c>
@@ -2550,7 +2388,7 @@
         <v>0.39057740000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>44</v>
       </c>
@@ -2561,7 +2399,7 @@
         <v>0.39014720000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>45</v>
       </c>
@@ -2572,7 +2410,7 @@
         <v>0.39023099999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>46</v>
       </c>
@@ -2583,7 +2421,7 @@
         <v>0.3907175</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>47</v>
       </c>
@@ -2594,7 +2432,7 @@
         <v>0.39060810000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2605,7 +2443,7 @@
         <v>0.39055060000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2616,7 +2454,7 @@
         <v>0.39064090000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>54</v>
       </c>
@@ -2627,7 +2465,7 @@
         <v>0.39112740000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>55</v>
       </c>
@@ -2638,7 +2476,7 @@
         <v>0.39023000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>56</v>
       </c>
@@ -2649,7 +2487,7 @@
         <v>0.3925264</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>57</v>
       </c>
@@ -2660,7 +2498,7 @@
         <v>0.39039259999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>58</v>
       </c>
@@ -2671,7 +2509,7 @@
         <v>0.3903354</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>60</v>
       </c>
@@ -2682,7 +2520,7 @@
         <v>0.39053900000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>64</v>
       </c>
@@ -2693,7 +2531,7 @@
         <v>0.39010529999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>66</v>
       </c>
@@ -2740,18 +2578,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="28"/>
+    <col min="1" max="1" width="14.09765625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
@@ -2774,7 +2612,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>79</v>
       </c>
@@ -2797,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>80</v>
       </c>
@@ -2814,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>85</v>
       </c>
@@ -2837,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>86</v>
       </c>
@@ -2863,7 +2701,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>87</v>
       </c>
@@ -2889,7 +2727,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>88</v>
       </c>
@@ -2915,9 +2753,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B8" s="40">
         <v>256</v>
@@ -2938,9 +2776,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B9" s="40">
         <v>256</v>
@@ -2961,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>89</v>
       </c>
@@ -2987,9 +2825,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B11" s="40">
         <v>136</v>
@@ -3010,9 +2848,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B12" s="40">
         <v>138</v>
@@ -3033,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>90</v>
       </c>
@@ -3059,7 +2897,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>91</v>
       </c>
@@ -3086,9 +2924,9 @@
       </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B15" s="40">
         <v>62605</v>
@@ -3109,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B16" s="40">
         <v>204961</v>
@@ -3138,7 +2976,7 @@
       <c r="H16" s="31"/>
       <c r="J16" s="37"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>92</v>
       </c>
@@ -3165,9 +3003,9 @@
       </c>
       <c r="J17" s="37"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B18" s="40">
         <v>65491</v>
@@ -3190,9 +3028,9 @@
       <c r="H18" s="31"/>
       <c r="J18" s="37"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B19" s="40">
         <v>489247</v>
@@ -3215,7 +3053,7 @@
       <c r="H19" s="31"/>
       <c r="J19" s="37"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>93</v>
       </c>
@@ -3241,7 +3079,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>94</v>
       </c>
@@ -3267,7 +3105,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>95</v>
       </c>
@@ -3293,7 +3131,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>96</v>
       </c>
@@ -3319,7 +3157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>116</v>
       </c>
@@ -3345,7 +3183,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>118</v>
       </c>
@@ -3371,9 +3209,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B26" s="40">
         <v>10</v>
@@ -3394,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>99</v>
       </c>
@@ -3423,7 +3261,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>100</v>
       </c>
@@ -3449,7 +3287,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>101</v>
       </c>
@@ -3475,7 +3313,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>102</v>
       </c>
@@ -3501,7 +3339,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>103</v>
       </c>
@@ -3524,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>79</v>
       </c>
@@ -3550,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>80</v>
       </c>
@@ -3567,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>85</v>
       </c>
@@ -3590,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>86</v>
       </c>
@@ -3612,11 +3450,11 @@
       <c r="G35" s="36">
         <v>0</v>
       </c>
-      <c r="H35" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H35" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>87</v>
       </c>
@@ -3639,12 +3477,12 @@
         <v>0</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B37" s="36">
         <v>2824</v>
@@ -3665,12 +3503,12 @@
         <v>0</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B38" s="40">
         <v>256</v>
@@ -3691,9 +3529,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B39" s="40">
         <v>256</v>
@@ -3714,9 +3552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B40" s="36">
         <v>3365</v>
@@ -3737,12 +3575,12 @@
         <v>0</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B41" s="40">
         <v>257</v>
@@ -3763,9 +3601,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B42" s="40">
         <v>257</v>
@@ -3786,9 +3624,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B43" s="36">
         <v>21</v>
@@ -3809,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>91</v>
       </c>
@@ -3834,13 +3672,13 @@
       <c r="G44" s="36">
         <v>0</v>
       </c>
-      <c r="H44" s="28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H44" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B45" s="40">
         <v>47736</v>
@@ -3861,12 +3699,12 @@
         <v>0</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B46" s="40">
         <v>85289</v>
@@ -3887,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>92</v>
       </c>
@@ -3912,13 +3750,13 @@
       <c r="G47" s="36">
         <v>0</v>
       </c>
-      <c r="H47" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B48" s="40">
         <v>65531</v>
@@ -3939,12 +3777,12 @@
         <v>0</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B49" s="40">
         <v>613905</v>
@@ -3965,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>93</v>
       </c>
@@ -3990,11 +3828,11 @@
       <c r="G50" s="36">
         <v>0</v>
       </c>
-      <c r="H50" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
@@ -4017,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
@@ -4043,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
@@ -4069,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
@@ -4095,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
@@ -4121,12 +3959,12 @@
         <v>0</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B56" s="40">
         <v>7</v>
@@ -4147,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>99</v>
       </c>
@@ -4173,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>100</v>
       </c>
@@ -4199,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>101</v>
       </c>
@@ -4225,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>102</v>
       </c>
@@ -4251,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>103</v>
       </c>
@@ -4277,38 +4115,38 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>81</v>
       </c>
@@ -4316,7 +4154,7 @@
         <v>14596137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>82</v>
       </c>
@@ -4324,7 +4162,7 @@
         <v>1719304</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>83</v>
       </c>
@@ -4332,7 +4170,7 @@
         <v>25832830</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>84</v>
       </c>
@@ -4340,67 +4178,67 @@
         <v>2858160</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="34">
         <v>0.39405109999999999</v>
       </c>

--- a/Models-performance.xlsx
+++ b/Models-performance.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan.Liuyanfeng\Desktop\Data_Mining_Work_Space\VAZU\AVAZU-CTR-Prediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12312" yWindow="1392" windowWidth="21108" windowHeight="12528" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12320" yWindow="1400" windowWidth="24000" windowHeight="12520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="195">
   <si>
     <t>Single Model</t>
   </si>
@@ -1099,9 +1094,6 @@
     <t>('f3845767', 7729065), ('7e091613', 3599088), ('7687a86e', 1421713), ('98572c79', 1059379), ('16a36ef3', 952270)</t>
   </si>
   <si>
-    <t>('f028772b', 14481847), ('28905ebd', 7868792), ('3e814130', 3339719), (nan, 2087974), ('f66779e6', 261679)</t>
-  </si>
-  <si>
     <t>('a99f214a', 26621212), ('0f7c61dc', 21356), ('c357dbff', 19667), ('3cdb4052', 3069), ('73b81e30', 1182)</t>
   </si>
   <si>
@@ -1139,6 +1131,116 @@
   </si>
   <si>
     <t>(23, 7118751), (221, 4332031), (79, 4140703), (48, 1978013), (33, 1640490)</t>
+  </si>
+  <si>
+    <t>(1005, 14937373),(1010, 970333),(1002, 301962),(1012, 45396),(1007, 45004)</t>
+  </si>
+  <si>
+    <t>(0, 14973417), (1, 1286259), (7, 49159), (5, 5778), (3, 804)</t>
+  </si>
+  <si>
+    <t>('92f5800b', 1655839),('e2fcccd2', 1283649),('9c13b419', 1021574),('febd1138', 838533),('7358e05e', 662544)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">('2347f47a', 6067233), ('ae637522', 2060689), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(nan, 1518728)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>,('5c5a694b', 1283962),('82e27996', 838560)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">('f028772b', 14481847), ('28905ebd', 7868792), ('3e814130', 3339719), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(nan, 2087974)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, ('f66779e6', 261679)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>('0f2161f8', 10447772),('cef3e649', 1911579),('8ded1f7a', 1763120),('f95efa07', 1447244),(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>nan, 356456)</t>
+    </r>
+  </si>
+  <si>
+    <t>('a99f214a', 10678797),('936e92fb', 14556) ('afeffc18', 12012),('987552d1', 4559),('d857ffbb', 4188)</t>
+  </si>
+  <si>
+    <t>('6b9769f2', 33516), ('7ed30f6c', 32529), ('b0070d9a', 32333), ('431b3174', 23822), ('e9d5636f', 22447)</t>
+  </si>
+  <si>
+    <t>('1f0bc64f', 576039),('e1eae715', 453462), ('981edffc', 387235),('7abbbd5c', 383739), ('d787e91b', 379585)</t>
+  </si>
+  <si>
+    <t>(1, 15043146), (4, 832107), (0, 301962), (5, 138226)</t>
+  </si>
+  <si>
+    <t>(0, 11219852), (2, 2611765), (3, 2431610), (5, 52214)</t>
+  </si>
+  <si>
+    <t>(21611, 966405), (21189, 781096),(21191, 779850),(4687, 453733), (23804, 406539)</t>
+  </si>
+  <si>
+    <t>(320, 15725114), (300, 479611), (728, 78661), (216, 22321), (1024, 2861)</t>
+  </si>
+  <si>
+    <t>(50, 15941129), (250, 148783), (480, 114813), (90, 78661), (36, 22321)</t>
+  </si>
+  <si>
+    <t>(2424, 1560957),(2480, 1006016) (1722, 635477),(2676, 634923),(2506, 579341)</t>
+  </si>
+  <si>
+    <t>(3, 7068723), (0, 4929722), (1, 2515737), (2, 1801259)</t>
+  </si>
+  <si>
+    <t>(35, 3870631), (39, 2697893), (161, 1615411), (47, 899023), (297, 819954)</t>
+  </si>
+  <si>
+    <t>(-1, 7067998), (100111, 1507255), (100148, 849299), (100193, 726170), (100176, 682577)</t>
+  </si>
+  <si>
+    <t>(23, 2772757), (71, 2176196), (61, 1882841), (221, 1685886), (157, 881058)</t>
   </si>
 </sst>
 </file>
@@ -1585,14 +1687,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2018,21 +2120,21 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="22"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="22"/>
     <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.09765625" style="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2081,7 +2183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2130,7 +2232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2231,7 +2333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="13.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -2254,7 +2356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -2274,7 +2376,7 @@
         <v>0.39172950000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -2288,7 +2390,7 @@
         <v>0.39207769999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -2302,7 +2404,7 @@
         <v>0.39759860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="13.75" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -2319,7 +2421,7 @@
         <v>0.39835199999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -2333,7 +2435,7 @@
         <v>0.3927775</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="13.75" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -2347,7 +2449,7 @@
         <v>0.39249859999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="D16" s="26" t="s">
         <v>63</v>
       </c>
@@ -2355,7 +2457,7 @@
         <v>0.39577820000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="D17" s="26" t="s">
         <v>65</v>
       </c>
@@ -2366,178 +2468,178 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="21">
         <v>0.39057740000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="21">
         <v>0.39014720000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="21">
         <v>0.39023099999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="21">
         <v>0.3907175</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="21">
         <v>0.39060810000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="21">
         <v>0.39055060000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="21">
         <v>0.39064090000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="21">
         <v>0.39112740000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="21">
         <v>0.39023000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="21">
         <v>0.3925264</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="21">
         <v>0.39039259999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="21">
         <v>0.3903354</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="21">
         <v>0.39053900000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="21">
         <v>0.39010529999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="21">
         <v>0.39025559999999998</v>
       </c>
@@ -2578,18 +2680,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.59765625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="8.8984375" style="28"/>
+    <col min="1" max="1" width="14.1640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.6640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="29" t="s">
         <v>68</v>
       </c>
@@ -2612,7 +2715,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="32" t="s">
         <v>79</v>
       </c>
@@ -2635,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="32" t="s">
         <v>80</v>
       </c>
@@ -2652,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="32" t="s">
         <v>85</v>
       </c>
@@ -2675,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="32" t="s">
         <v>86</v>
       </c>
@@ -2700,8 +2803,11 @@
       <c r="H5" s="28" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="32" t="s">
         <v>87</v>
       </c>
@@ -2726,8 +2832,11 @@
       <c r="H6" s="28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="32" t="s">
         <v>88</v>
       </c>
@@ -2752,8 +2861,11 @@
       <c r="H7" s="28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="39" t="s">
         <v>155</v>
       </c>
@@ -2776,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="39" t="s">
         <v>156</v>
       </c>
@@ -2799,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="32" t="s">
         <v>89</v>
       </c>
@@ -2824,8 +2936,11 @@
       <c r="H10" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="39" t="s">
         <v>157</v>
       </c>
@@ -2848,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="39" t="s">
         <v>158</v>
       </c>
@@ -2871,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="32" t="s">
         <v>90</v>
       </c>
@@ -2896,8 +3011,11 @@
       <c r="H13" s="28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="32" t="s">
         <v>91</v>
       </c>
@@ -2922,9 +3040,12 @@
       <c r="H14" s="31" t="s">
         <v>109</v>
       </c>
+      <c r="I14" s="28" t="s">
+        <v>182</v>
+      </c>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="39" t="s">
         <v>138</v>
       </c>
@@ -2951,7 +3072,7 @@
       </c>
       <c r="J15" s="37"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="39" t="s">
         <v>139</v>
       </c>
@@ -2976,7 +3097,7 @@
       <c r="H16" s="31"/>
       <c r="J16" s="37"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="32" t="s">
         <v>92</v>
       </c>
@@ -3001,9 +3122,12 @@
       <c r="H17" s="31" t="s">
         <v>110</v>
       </c>
+      <c r="I17" s="28" t="s">
+        <v>183</v>
+      </c>
       <c r="J17" s="37"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="39" t="s">
         <v>140</v>
       </c>
@@ -3028,7 +3152,7 @@
       <c r="H18" s="31"/>
       <c r="J18" s="37"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="39" t="s">
         <v>141</v>
       </c>
@@ -3053,7 +3177,7 @@
       <c r="H19" s="31"/>
       <c r="J19" s="37"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="32" t="s">
         <v>93</v>
       </c>
@@ -3078,8 +3202,11 @@
       <c r="H20" s="31" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="32" t="s">
         <v>94</v>
       </c>
@@ -3104,8 +3231,11 @@
       <c r="H21" s="28" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="32" t="s">
         <v>95</v>
       </c>
@@ -3130,8 +3260,11 @@
       <c r="H22" s="28" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="32" t="s">
         <v>96</v>
       </c>
@@ -3156,8 +3289,11 @@
       <c r="H23" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="32" t="s">
         <v>116</v>
       </c>
@@ -3182,8 +3318,11 @@
       <c r="H24" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="32" t="s">
         <v>118</v>
       </c>
@@ -3208,8 +3347,11 @@
       <c r="H25" s="28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="39" t="s">
         <v>137</v>
       </c>
@@ -3235,7 +3377,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="32" t="s">
         <v>99</v>
       </c>
@@ -3260,8 +3402,11 @@
       <c r="H27" s="28" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="32" t="s">
         <v>100</v>
       </c>
@@ -3286,8 +3431,11 @@
       <c r="H28" s="28" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="32" t="s">
         <v>101</v>
       </c>
@@ -3312,8 +3460,11 @@
       <c r="H29" s="28" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="32" t="s">
         <v>102</v>
       </c>
@@ -3338,8 +3489,11 @@
       <c r="H30" s="38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="32" t="s">
         <v>103</v>
       </c>
@@ -3364,8 +3518,11 @@
       <c r="H31" s="28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="33" t="s">
         <v>79</v>
       </c>
@@ -3388,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="33" t="s">
         <v>80</v>
       </c>
@@ -3405,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="33" t="s">
         <v>85</v>
       </c>
@@ -3428,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="33" t="s">
         <v>86</v>
       </c>
@@ -3450,11 +3607,11 @@
       <c r="G35" s="36">
         <v>0</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="42" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="33" t="s">
         <v>87</v>
       </c>
@@ -3480,7 +3637,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="41" t="s">
         <v>123</v>
       </c>
@@ -3506,7 +3663,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="39" t="s">
         <v>152</v>
       </c>
@@ -3529,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="39" t="s">
         <v>153</v>
       </c>
@@ -3552,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="41" t="s">
         <v>124</v>
       </c>
@@ -3578,7 +3735,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="39" t="s">
         <v>151</v>
       </c>
@@ -3601,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="39" t="s">
         <v>154</v>
       </c>
@@ -3624,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="33" t="s">
         <v>125</v>
       </c>
@@ -3647,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="33" t="s">
         <v>91</v>
       </c>
@@ -3672,11 +3829,11 @@
       <c r="G44" s="36">
         <v>0</v>
       </c>
-      <c r="H44" s="45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="39" t="s">
         <v>138</v>
       </c>
@@ -3702,7 +3859,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="39" t="s">
         <v>139</v>
       </c>
@@ -3728,7 +3885,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="33" t="s">
         <v>92</v>
       </c>
@@ -3750,11 +3907,11 @@
       <c r="G47" s="36">
         <v>0</v>
       </c>
-      <c r="H47" s="45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="39" t="s">
         <v>140</v>
       </c>
@@ -3780,7 +3937,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="39" t="s">
         <v>141</v>
       </c>
@@ -3806,7 +3963,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="41" t="s">
         <v>93</v>
       </c>
@@ -3828,11 +3985,11 @@
       <c r="G50" s="36">
         <v>0</v>
       </c>
-      <c r="H50" s="45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="33" t="s">
         <v>94</v>
       </c>
@@ -3855,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="33" t="s">
         <v>95</v>
       </c>
@@ -3881,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="33" t="s">
         <v>96</v>
       </c>
@@ -3907,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="33" t="s">
         <v>97</v>
       </c>
@@ -3933,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="33" t="s">
         <v>98</v>
       </c>
@@ -3959,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="39" t="s">
         <v>137</v>
       </c>
@@ -3988,7 +4145,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="33" t="s">
         <v>99</v>
       </c>
@@ -4011,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="33" t="s">
         <v>100</v>
       </c>
@@ -4037,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="33" t="s">
         <v>101</v>
       </c>
@@ -4063,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="33" t="s">
         <v>102</v>
       </c>
@@ -4089,10 +4246,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="33" t="s">
         <v>103</v>
       </c>
@@ -4115,38 +4272,38 @@
         <v>0</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="28"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="28" t="s">
         <v>81</v>
       </c>
@@ -4154,7 +4311,7 @@
         <v>14596137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="28" t="s">
         <v>82</v>
       </c>
@@ -4162,7 +4319,7 @@
         <v>1719304</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="28" t="s">
         <v>83</v>
       </c>
@@ -4170,7 +4327,7 @@
         <v>25832830</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="28" t="s">
         <v>84</v>
       </c>
@@ -4178,67 +4335,67 @@
         <v>2858160</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="34" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="34" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="34" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="28" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="28" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" s="34">
         <v>0.39405109999999999</v>
       </c>
